--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -760,7 +760,7 @@
         <v>5474</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         <v>784663</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>784886</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>787598</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>794590</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>784709</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>108391</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45395</v>
+        <v>45398</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>798839</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>804981</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>791416</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>801563</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>802281</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>784639</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>785466</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45395</v>
+        <v>45399</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>797117</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45395</v>
+        <v>45400</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>793051</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45395</v>
+        <v>45448</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>804981</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45395</v>
+        <v>45402</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>5474</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45395</v>
+        <v>45402</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>802281</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45395</v>
+        <v>45402</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>801563</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45395</v>
+        <v>45402</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>784639</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45395</v>
+        <v>45403</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>784663</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45395</v>
+        <v>45403</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>787735</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45395</v>
+        <v>45403</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>785466</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45395</v>
+        <v>45403</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>784982</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45395</v>
+        <v>45403</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>791416</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45395</v>
+        <v>45409</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>784886</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45395</v>
+        <v>45409</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>787598</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45395</v>
+        <v>45409</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>794590</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45395</v>
+        <v>45410</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>108391</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45395</v>
+        <v>45410</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>793051</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45395</v>
+        <v>45410</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>125341</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45395</v>
+        <v>45410</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>798839</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45395</v>
+        <v>45410</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>797117</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45395</v>
+        <v>45410</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>784709</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45395</v>
+        <v>45411</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>784886</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45395</v>
+        <v>45416</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>784663</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45395</v>
+        <v>45416</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>786600</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45395</v>
+        <v>45416</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>804981</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45395</v>
+        <v>45417</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>785466</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45395</v>
+        <v>45417</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>787735</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45395</v>
+        <v>45417</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>784709</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45395</v>
+        <v>45417</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>797117</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45395</v>
+        <v>45448</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>802281</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>45395</v>
+        <v>45423</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>801563</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>45395</v>
+        <v>45424</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>794590</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>45395</v>
+        <v>45424</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>798839</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>45395</v>
+        <v>45424</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>125341</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>45395</v>
+        <v>45424</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>793051</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>45395</v>
+        <v>45424</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>108391</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>45395</v>
+        <v>45425</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>5474</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>45395</v>
+        <v>45452</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>125341</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>45395</v>
+        <v>45444</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>164969</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>45395</v>
+        <v>45444</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>784639</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>45395</v>
+        <v>45444</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>784982</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>45395</v>
+        <v>45444</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>794590</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>45395</v>
+        <v>45444</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>787735</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>45395</v>
+        <v>45445</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>784709</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>45395</v>
+        <v>45445</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>784663</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>45395</v>
+        <v>45445</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>798839</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>45395</v>
+        <v>45445</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>801563</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>45395</v>
+        <v>45445</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>802281</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>45395</v>
+        <v>45454</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>793051</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>45395</v>
+        <v>45454</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>108391</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>45395</v>
+        <v>45454</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>784886</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>45395</v>
+        <v>45454</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>5474</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>45395</v>
+        <v>45456</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>791416</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>45395</v>
+        <v>45456</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>787598</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>45395</v>
+        <v>45456</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>785466</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>45395</v>
+        <v>45456</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>786600</v>
       </c>
       <c r="K78" s="2" t="n">
-        <v>45395</v>
+        <v>45456</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>804981</v>
       </c>
       <c r="K79" s="2" t="n">
-        <v>45395</v>
+        <v>45456</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>784982</v>
       </c>
       <c r="K80" s="2" t="n">
-        <v>45395</v>
+        <v>45458</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>797117</v>
       </c>
       <c r="K81" s="2" t="n">
-        <v>45395</v>
+        <v>45458</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>784663</v>
       </c>
       <c r="K82" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>785466</v>
       </c>
       <c r="K83" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>784639</v>
       </c>
       <c r="K84" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>787735</v>
       </c>
       <c r="K85" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>786600</v>
       </c>
       <c r="K86" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>794590</v>
       </c>
       <c r="K87" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>801563</v>
       </c>
       <c r="K88" s="2" t="n">
-        <v>45395</v>
+        <v>45459</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>784709</v>
       </c>
       <c r="K89" s="2" t="n">
-        <v>45395</v>
+        <v>45460</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>791416</v>
       </c>
       <c r="K90" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>798839</v>
       </c>
       <c r="K91" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>787598</v>
       </c>
       <c r="K92" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>804981</v>
       </c>
       <c r="K93" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>5474</v>
       </c>
       <c r="K94" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>108391</v>
       </c>
       <c r="K95" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>802281</v>
       </c>
       <c r="K96" s="2" t="n">
-        <v>45395</v>
+        <v>45462</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>784886</v>
       </c>
       <c r="K97" s="2" t="n">
-        <v>45395</v>
+        <v>45463</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>787735</v>
       </c>
       <c r="K98" s="2" t="n">
-        <v>45395</v>
+        <v>45463</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>125341</v>
       </c>
       <c r="K99" s="2" t="n">
-        <v>45395</v>
+        <v>45463</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>794590</v>
       </c>
       <c r="K100" s="2" t="n">
-        <v>45395</v>
+        <v>45465</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>784639</v>
       </c>
       <c r="K101" s="2" t="n">
-        <v>45395</v>
+        <v>45465</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>797117</v>
       </c>
       <c r="K102" s="2" t="n">
-        <v>45395</v>
+        <v>45465</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>785466</v>
       </c>
       <c r="K103" s="2" t="n">
-        <v>45395</v>
+        <v>45465</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>802281</v>
       </c>
       <c r="K104" s="2" t="n">
-        <v>45395</v>
+        <v>45466</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>801563</v>
       </c>
       <c r="K105" s="2" t="n">
-        <v>45395</v>
+        <v>45466</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>784663</v>
       </c>
       <c r="K106" s="2" t="n">
-        <v>45395</v>
+        <v>45466</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>786600</v>
       </c>
       <c r="K107" s="2" t="n">
-        <v>45395</v>
+        <v>45466</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>784982</v>
       </c>
       <c r="K108" s="2" t="n">
-        <v>45395</v>
+        <v>45466</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>793051</v>
       </c>
       <c r="K109" s="2" t="n">
-        <v>45395</v>
+        <v>45466</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>125341</v>
       </c>
       <c r="K110" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>798839</v>
       </c>
       <c r="K111" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>787598</v>
       </c>
       <c r="K112" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>5474</v>
       </c>
       <c r="K113" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>784663</v>
       </c>
       <c r="K114" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>804981</v>
       </c>
       <c r="K115" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>784709</v>
       </c>
       <c r="K116" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>784886</v>
       </c>
       <c r="K117" s="2" t="n">
-        <v>45395</v>
+        <v>45469</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>793051</v>
       </c>
       <c r="K118" s="2" t="n">
-        <v>45395</v>
+        <v>45470</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>791416</v>
       </c>
       <c r="K119" s="2" t="n">
-        <v>45395</v>
+        <v>45470</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>125341</v>
       </c>
       <c r="K120" s="2" t="n">
-        <v>45395</v>
+        <v>45472</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>794590</v>
       </c>
       <c r="K121" s="2" t="n">
-        <v>45395</v>
+        <v>45472</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>797117</v>
       </c>
       <c r="K122" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>784982</v>
       </c>
       <c r="K123" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>108391</v>
       </c>
       <c r="K124" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>787735</v>
       </c>
       <c r="K125" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>784639</v>
       </c>
       <c r="K126" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>801563</v>
       </c>
       <c r="K127" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>798839</v>
       </c>
       <c r="K128" s="2" t="n">
-        <v>45395</v>
+        <v>45473</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>802281</v>
       </c>
       <c r="K129" s="2" t="n">
-        <v>45395</v>
+        <v>45474</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>794590</v>
       </c>
       <c r="K130" s="2" t="n">
-        <v>45395</v>
+        <v>45476</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>801563</v>
       </c>
       <c r="K131" s="2" t="n">
-        <v>45395</v>
+        <v>45476</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>786600</v>
       </c>
       <c r="K132" s="2" t="n">
-        <v>45395</v>
+        <v>45476</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>785466</v>
       </c>
       <c r="K133" s="2" t="n">
-        <v>45395</v>
+        <v>45476</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>784663</v>
       </c>
       <c r="K134" s="2" t="n">
-        <v>45395</v>
+        <v>45476</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>797117</v>
       </c>
       <c r="K135" s="2" t="n">
-        <v>45395</v>
+        <v>45476</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>784982</v>
       </c>
       <c r="K136" s="2" t="n">
-        <v>45395</v>
+        <v>45477</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>784709</v>
       </c>
       <c r="K137" s="2" t="n">
-        <v>45395</v>
+        <v>45477</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>793051</v>
       </c>
       <c r="K138" s="2" t="n">
-        <v>45395</v>
+        <v>45477</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>784639</v>
       </c>
       <c r="K139" s="2" t="n">
-        <v>45395</v>
+        <v>45477</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>5474</v>
       </c>
       <c r="K140" s="2" t="n">
-        <v>45395</v>
+        <v>45479</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>125341</v>
       </c>
       <c r="K141" s="2" t="n">
-        <v>45395</v>
+        <v>45479</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>802281</v>
       </c>
       <c r="K142" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>108391</v>
       </c>
       <c r="K143" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>787598</v>
       </c>
       <c r="K144" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>804981</v>
       </c>
       <c r="K145" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>798839</v>
       </c>
       <c r="K146" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>787735</v>
       </c>
       <c r="K147" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>791416</v>
       </c>
       <c r="K148" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>784886</v>
       </c>
       <c r="K149" s="2" t="n">
-        <v>45395</v>
+        <v>45480</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>801563</v>
       </c>
       <c r="K151" s="2" t="n">
-        <v>45395</v>
+        <v>45483</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>787735</v>
       </c>
       <c r="K152" s="2" t="n">
-        <v>45395</v>
+        <v>45483</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>802281</v>
       </c>
       <c r="K154" s="2" t="n">
-        <v>45395</v>
+        <v>45483</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>164969</v>
       </c>
       <c r="K155" s="2" t="n">
-        <v>45395</v>
+        <v>45484</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>108391</v>
       </c>
       <c r="K156" s="2" t="n">
-        <v>45395</v>
+        <v>45484</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>786600</v>
       </c>
       <c r="K157" s="2" t="n">
-        <v>45395</v>
+        <v>45484</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>785466</v>
       </c>
       <c r="K158" s="2" t="n">
-        <v>45395</v>
+        <v>45484</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>794590</v>
       </c>
       <c r="K159" s="2" t="n">
-        <v>45395</v>
+        <v>45484</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -8965,7 +8965,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>notstarted</t>
+          <t>inprogress</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +516,11 @@
           <t>away_goals</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>dt_insertion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -566,6 +574,9 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
+      <c r="P2" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -619,6 +630,9 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
+      <c r="P3" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -672,6 +686,9 @@
       <c r="O4" t="n">
         <v>2</v>
       </c>
+      <c r="P4" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -725,6 +742,9 @@
       <c r="O5" t="n">
         <v>2</v>
       </c>
+      <c r="P5" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -778,6 +798,9 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -831,6 +854,9 @@
       <c r="O7" t="n">
         <v>2</v>
       </c>
+      <c r="P7" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -884,6 +910,9 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
+      <c r="P8" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -937,6 +966,9 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
+      <c r="P9" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -990,6 +1022,9 @@
       <c r="O10" t="n">
         <v>2</v>
       </c>
+      <c r="P10" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1043,6 +1078,9 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
+      <c r="P11" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1095,6 +1133,9 @@
       </c>
       <c r="O12" t="n">
         <v>1</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>45489.90765046296</v>
       </c>
     </row>
     <row r="13">
@@ -1139,6 +1180,9 @@
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1192,6 +1236,9 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1245,6 +1292,9 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
+      <c r="P15" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1298,6 +1348,9 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
+      <c r="P16" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1351,6 +1404,9 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
+      <c r="P17" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1404,6 +1460,9 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1457,6 +1516,9 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
+      <c r="P19" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1510,6 +1572,9 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
+      <c r="P20" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1563,6 +1628,9 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
+      <c r="P21" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1615,6 +1683,9 @@
       </c>
       <c r="O22" t="n">
         <v>0</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>45489.90765046296</v>
       </c>
     </row>
     <row r="23">
@@ -1659,6 +1730,9 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1712,6 +1786,9 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
+      <c r="P24" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1765,6 +1842,9 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
+      <c r="P25" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1818,6 +1898,9 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
+      <c r="P26" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1871,6 +1954,9 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1924,6 +2010,9 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
+      <c r="P28" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1977,6 +2066,9 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
+      <c r="P29" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2030,6 +2122,9 @@
       <c r="O30" t="n">
         <v>2</v>
       </c>
+      <c r="P30" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2083,6 +2178,9 @@
       <c r="O31" t="n">
         <v>3</v>
       </c>
+      <c r="P31" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2135,6 +2233,9 @@
       </c>
       <c r="O32" t="n">
         <v>1</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>45489.90765046296</v>
       </c>
     </row>
     <row r="33">
@@ -2179,6 +2280,9 @@
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2232,6 +2336,9 @@
       <c r="O34" t="n">
         <v>4</v>
       </c>
+      <c r="P34" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2285,6 +2392,9 @@
       <c r="O35" t="n">
         <v>3</v>
       </c>
+      <c r="P35" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2338,6 +2448,9 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
+      <c r="P36" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2391,6 +2504,9 @@
       <c r="O37" t="n">
         <v>2</v>
       </c>
+      <c r="P37" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2444,6 +2560,9 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
+      <c r="P38" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2497,6 +2616,9 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
+      <c r="P39" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2550,6 +2672,9 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
+      <c r="P40" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2603,6 +2728,9 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
+      <c r="P41" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2656,6 +2784,9 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
+      <c r="P42" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2709,6 +2840,9 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
+      <c r="P43" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2762,6 +2896,9 @@
       <c r="O44" t="n">
         <v>2</v>
       </c>
+      <c r="P44" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2815,6 +2952,9 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
+      <c r="P45" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2868,6 +3008,9 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
+      <c r="P46" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2921,6 +3064,9 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
+      <c r="P47" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2974,6 +3120,9 @@
       <c r="O48" t="n">
         <v>3</v>
       </c>
+      <c r="P48" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3027,6 +3176,9 @@
       <c r="O49" t="n">
         <v>2</v>
       </c>
+      <c r="P49" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3080,6 +3232,9 @@
       <c r="O50" t="n">
         <v>2</v>
       </c>
+      <c r="P50" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3133,6 +3288,9 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
+      <c r="P51" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3186,6 +3344,9 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
+      <c r="P52" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3239,6 +3400,9 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
+      <c r="P53" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3292,6 +3456,9 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
+      <c r="P54" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3345,6 +3512,9 @@
       <c r="O55" t="n">
         <v>2</v>
       </c>
+      <c r="P55" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3398,6 +3568,9 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
+      <c r="P56" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3451,6 +3624,9 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
+      <c r="P57" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3504,6 +3680,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
+      <c r="P58" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3557,6 +3736,9 @@
       <c r="O59" t="n">
         <v>5</v>
       </c>
+      <c r="P59" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3610,6 +3792,9 @@
       <c r="O60" t="n">
         <v>2</v>
       </c>
+      <c r="P60" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3663,6 +3848,9 @@
       <c r="O61" t="n">
         <v>2</v>
       </c>
+      <c r="P61" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3716,6 +3904,9 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
+      <c r="P62" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3769,6 +3960,9 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
+      <c r="P63" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3822,6 +4016,9 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
+      <c r="P64" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3875,6 +4072,9 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
+      <c r="P65" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3928,6 +4128,9 @@
       <c r="O66" t="n">
         <v>2</v>
       </c>
+      <c r="P66" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3981,6 +4184,9 @@
       <c r="O67" t="n">
         <v>6</v>
       </c>
+      <c r="P67" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4034,6 +4240,9 @@
       <c r="O68" t="n">
         <v>0</v>
       </c>
+      <c r="P68" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4087,6 +4296,9 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
+      <c r="P69" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4140,6 +4352,9 @@
       <c r="O70" t="n">
         <v>2</v>
       </c>
+      <c r="P70" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4193,6 +4408,9 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
+      <c r="P71" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4246,6 +4464,9 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
+      <c r="P72" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4299,6 +4520,9 @@
       <c r="O73" t="n">
         <v>2</v>
       </c>
+      <c r="P73" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4352,6 +4576,9 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
+      <c r="P74" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4405,6 +4632,9 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
+      <c r="P75" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4458,6 +4688,9 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
+      <c r="P76" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4511,6 +4744,9 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
+      <c r="P77" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4564,6 +4800,9 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
+      <c r="P78" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4617,6 +4856,9 @@
       <c r="O79" t="n">
         <v>0</v>
       </c>
+      <c r="P79" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4670,6 +4912,9 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
+      <c r="P80" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4723,6 +4968,9 @@
       <c r="O81" t="n">
         <v>2</v>
       </c>
+      <c r="P81" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4776,6 +5024,9 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
+      <c r="P82" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4829,6 +5080,9 @@
       <c r="O83" t="n">
         <v>2</v>
       </c>
+      <c r="P83" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4882,6 +5136,9 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
+      <c r="P84" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4935,6 +5192,9 @@
       <c r="O85" t="n">
         <v>2</v>
       </c>
+      <c r="P85" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4988,6 +5248,9 @@
       <c r="O86" t="n">
         <v>0</v>
       </c>
+      <c r="P86" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5041,6 +5304,9 @@
       <c r="O87" t="n">
         <v>2</v>
       </c>
+      <c r="P87" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5094,6 +5360,9 @@
       <c r="O88" t="n">
         <v>0</v>
       </c>
+      <c r="P88" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5147,6 +5416,9 @@
       <c r="O89" t="n">
         <v>4</v>
       </c>
+      <c r="P89" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5200,6 +5472,9 @@
       <c r="O90" t="n">
         <v>2</v>
       </c>
+      <c r="P90" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5253,6 +5528,9 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
+      <c r="P91" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5306,6 +5584,9 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
+      <c r="P92" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5359,6 +5640,9 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
+      <c r="P93" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5412,6 +5696,9 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
+      <c r="P94" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5465,6 +5752,9 @@
       <c r="O95" t="n">
         <v>0</v>
       </c>
+      <c r="P95" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5518,6 +5808,9 @@
       <c r="O96" t="n">
         <v>0</v>
       </c>
+      <c r="P96" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5571,6 +5864,9 @@
       <c r="O97" t="n">
         <v>2</v>
       </c>
+      <c r="P97" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5624,6 +5920,9 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
+      <c r="P98" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5677,6 +5976,9 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
+      <c r="P99" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5730,6 +6032,9 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
+      <c r="P100" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5783,6 +6088,9 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
+      <c r="P101" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5836,6 +6144,9 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
+      <c r="P102" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5889,6 +6200,9 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
+      <c r="P103" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5942,6 +6256,9 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
+      <c r="P104" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5995,6 +6312,9 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
+      <c r="P105" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6048,6 +6368,9 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
+      <c r="P106" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6101,6 +6424,9 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
+      <c r="P107" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6154,6 +6480,9 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
+      <c r="P108" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6207,6 +6536,9 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
+      <c r="P109" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6260,6 +6592,9 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
+      <c r="P110" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6313,6 +6648,9 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
+      <c r="P111" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6366,6 +6704,9 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
+      <c r="P112" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6419,6 +6760,9 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
+      <c r="P113" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6472,6 +6816,9 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
+      <c r="P114" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6525,6 +6872,9 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
+      <c r="P115" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6578,6 +6928,9 @@
       <c r="O116" t="n">
         <v>0</v>
       </c>
+      <c r="P116" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6631,6 +6984,9 @@
       <c r="O117" t="n">
         <v>2</v>
       </c>
+      <c r="P117" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6684,6 +7040,9 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
+      <c r="P118" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6737,6 +7096,9 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
+      <c r="P119" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6790,6 +7152,9 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
+      <c r="P120" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6843,6 +7208,9 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
+      <c r="P121" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6896,6 +7264,9 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
+      <c r="P122" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6949,6 +7320,9 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
+      <c r="P123" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7002,6 +7376,9 @@
       <c r="O124" t="n">
         <v>0</v>
       </c>
+      <c r="P124" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7055,6 +7432,9 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
+      <c r="P125" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7108,6 +7488,9 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
+      <c r="P126" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7161,6 +7544,9 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
+      <c r="P127" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7214,6 +7600,9 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
+      <c r="P128" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7267,6 +7656,9 @@
       <c r="O129" t="n">
         <v>0</v>
       </c>
+      <c r="P129" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7320,6 +7712,9 @@
       <c r="O130" t="n">
         <v>2</v>
       </c>
+      <c r="P130" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7373,6 +7768,9 @@
       <c r="O131" t="n">
         <v>0</v>
       </c>
+      <c r="P131" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7426,6 +7824,9 @@
       <c r="O132" t="n">
         <v>0</v>
       </c>
+      <c r="P132" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7479,6 +7880,9 @@
       <c r="O133" t="n">
         <v>2</v>
       </c>
+      <c r="P133" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7532,6 +7936,9 @@
       <c r="O134" t="n">
         <v>4</v>
       </c>
+      <c r="P134" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7585,6 +7992,9 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
+      <c r="P135" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7638,6 +8048,9 @@
       <c r="O136" t="n">
         <v>0</v>
       </c>
+      <c r="P136" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7691,6 +8104,9 @@
       <c r="O137" t="n">
         <v>2</v>
       </c>
+      <c r="P137" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7744,6 +8160,9 @@
       <c r="O138" t="n">
         <v>2</v>
       </c>
+      <c r="P138" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7797,6 +8216,9 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
+      <c r="P139" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7850,6 +8272,9 @@
       <c r="O140" t="n">
         <v>1</v>
       </c>
+      <c r="P140" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7903,6 +8328,9 @@
       <c r="O141" t="n">
         <v>0</v>
       </c>
+      <c r="P141" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7956,6 +8384,9 @@
       <c r="O142" t="n">
         <v>0</v>
       </c>
+      <c r="P142" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8009,6 +8440,9 @@
       <c r="O143" t="n">
         <v>0</v>
       </c>
+      <c r="P143" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8062,6 +8496,9 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
+      <c r="P144" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8115,6 +8552,9 @@
       <c r="O145" t="n">
         <v>2</v>
       </c>
+      <c r="P145" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8168,6 +8608,9 @@
       <c r="O146" t="n">
         <v>2</v>
       </c>
+      <c r="P146" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8221,6 +8664,9 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
+      <c r="P147" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8274,6 +8720,9 @@
       <c r="O148" t="n">
         <v>1</v>
       </c>
+      <c r="P148" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8326,6 +8775,9 @@
       </c>
       <c r="O149" t="n">
         <v>0</v>
+      </c>
+      <c r="P149" s="3" t="n">
+        <v>45489.90765046296</v>
       </c>
     </row>
     <row r="150">
@@ -8370,6 +8822,9 @@
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
+      <c r="P150" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8423,6 +8878,9 @@
       <c r="O151" t="n">
         <v>2</v>
       </c>
+      <c r="P151" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8475,6 +8933,9 @@
       </c>
       <c r="O152" t="n">
         <v>3</v>
+      </c>
+      <c r="P152" s="3" t="n">
+        <v>45489.90765046296</v>
       </c>
     </row>
     <row r="153">
@@ -8519,6 +8980,9 @@
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
+      <c r="P153" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -8572,6 +9036,9 @@
       <c r="O154" t="n">
         <v>0</v>
       </c>
+      <c r="P154" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -8625,6 +9092,9 @@
       <c r="O155" t="n">
         <v>1</v>
       </c>
+      <c r="P155" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -8678,6 +9148,9 @@
       <c r="O156" t="n">
         <v>1</v>
       </c>
+      <c r="P156" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -8731,6 +9204,9 @@
       <c r="O157" t="n">
         <v>2</v>
       </c>
+      <c r="P157" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -8784,6 +9260,9 @@
       <c r="O158" t="n">
         <v>1</v>
       </c>
+      <c r="P158" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8837,6 +9316,9 @@
       <c r="O159" t="n">
         <v>1</v>
       </c>
+      <c r="P159" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -8890,6 +9372,9 @@
       <c r="O160" t="n">
         <v>2</v>
       </c>
+      <c r="P160" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8943,6 +9428,9 @@
       <c r="O161" t="n">
         <v>1</v>
       </c>
+      <c r="P161" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -8965,12 +9453,18 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>inprogress</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>789405</v>
+      </c>
+      <c r="I162" t="n">
+        <v>784982</v>
+      </c>
+      <c r="J162" t="n">
+        <v>784886</v>
+      </c>
       <c r="K162" s="2" t="n">
         <v>45489</v>
       </c>
@@ -8984,8 +9478,15 @@
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1</v>
+      </c>
+      <c r="P162" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9008,12 +9509,18 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>notstarted</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>788983</v>
+      </c>
+      <c r="I163" t="n">
+        <v>784889</v>
+      </c>
+      <c r="J163" t="n">
+        <v>791416</v>
+      </c>
       <c r="K163" s="2" t="n">
         <v>45489</v>
       </c>
@@ -9027,8 +9534,15 @@
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P163" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9072,6 +9586,9 @@
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
+      <c r="P164" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9115,6 +9632,9 @@
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
+      <c r="P165" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9158,6 +9678,9 @@
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
+      <c r="P166" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9201,6 +9724,9 @@
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
+      <c r="P167" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9244,6 +9770,9 @@
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
+      <c r="P168" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9287,6 +9816,9 @@
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
+      <c r="P169" s="3" t="n">
+        <v>45489.90765046296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -1181,7 +1181,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1731,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
     <row r="24">
@@ -2281,7 +2281,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
     <row r="34">
@@ -8808,7 +8808,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" s="2" t="n">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
     <row r="151">
@@ -8981,7 +8981,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
     <row r="154">
@@ -9490,13 +9490,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12117139</v>
+        <v>12117137</v>
       </c>
       <c r="B163" t="n">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="C163" t="n">
-        <v>1984</v>
+        <v>1967</v>
       </c>
       <c r="D163" t="n">
         <v>325</v>
@@ -9509,50 +9509,40 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>finished</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>788983</v>
-      </c>
-      <c r="I163" t="n">
-        <v>784889</v>
-      </c>
-      <c r="J163" t="n">
-        <v>791416</v>
-      </c>
+          <t>postponed</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" s="2" t="n">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Neo Química Arena</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
-        <v>2</v>
-      </c>
-      <c r="O163" t="n">
-        <v>1</v>
-      </c>
+          <t>Estádio do Maracanã</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
       <c r="P163" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12117137</v>
+        <v>12117134</v>
       </c>
       <c r="B164" t="n">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="C164" t="n">
-        <v>1967</v>
+        <v>5981</v>
       </c>
       <c r="D164" t="n">
         <v>325</v>
@@ -9576,29 +9566,29 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Estádio do Maracanã</t>
+          <t>Estádio Beira-Rio</t>
         </is>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12117134</v>
+        <v>12117142</v>
       </c>
       <c r="B165" t="n">
-        <v>1966</v>
+        <v>7314</v>
       </c>
       <c r="C165" t="n">
-        <v>5981</v>
+        <v>1974</v>
       </c>
       <c r="D165" t="n">
         <v>325</v>
@@ -9611,7 +9601,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>postponed</t>
+          <t>notstarted</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -9622,29 +9612,29 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Goiânia</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Estádio Beira-Rio</t>
+          <t>Estádio Antônio Accioly</t>
         </is>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>12117142</v>
+        <v>12117140</v>
       </c>
       <c r="B166" t="n">
-        <v>7314</v>
+        <v>1981</v>
       </c>
       <c r="C166" t="n">
-        <v>1974</v>
+        <v>5926</v>
       </c>
       <c r="D166" t="n">
         <v>325</v>
@@ -9668,29 +9658,29 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Goiânia</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Estádio Antônio Accioly</t>
+          <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>12117140</v>
+        <v>12117138</v>
       </c>
       <c r="B167" t="n">
-        <v>1981</v>
+        <v>1958</v>
       </c>
       <c r="C167" t="n">
-        <v>5926</v>
+        <v>1963</v>
       </c>
       <c r="D167" t="n">
         <v>325</v>
@@ -9714,29 +9704,29 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Estádio Cícero Pompeu de Toledo</t>
+          <t>Estádio Nilton Santos</t>
         </is>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>12117138</v>
+        <v>12117141</v>
       </c>
       <c r="B168" t="n">
-        <v>1958</v>
+        <v>2020</v>
       </c>
       <c r="C168" t="n">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D168" t="n">
         <v>325</v>
@@ -9760,29 +9750,29 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Estádio Nilton Santos</t>
+          <t>Estádio Castelão</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00260416666</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>12117141</v>
+        <v>12117139</v>
       </c>
       <c r="B169" t="n">
-        <v>2020</v>
+        <v>1957</v>
       </c>
       <c r="C169" t="n">
-        <v>1962</v>
+        <v>1984</v>
       </c>
       <c r="D169" t="n">
         <v>325</v>
@@ -9795,29 +9785,39 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>notstarted</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>788983</v>
+      </c>
+      <c r="I169" t="n">
+        <v>784889</v>
+      </c>
+      <c r="J169" t="n">
+        <v>791416</v>
+      </c>
       <c r="K169" s="2" t="n">
-        <v>45490</v>
+        <v>45489</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Estádio Castelão</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1</v>
+      </c>
       <c r="P169" s="3" t="n">
-        <v>45489.90765046296</v>
+        <v>45490.00259259259</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -1181,7 +1181,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" s="3" t="n">
-        <v>45490.00259259259</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1731,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" s="3" t="n">
-        <v>45490.00259259259</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="24">
@@ -2281,7 +2281,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" s="3" t="n">
-        <v>45490.00259259259</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="34">
@@ -8808,7 +8808,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" s="2" t="n">
-        <v>45483</v>
+        <v>45482</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" s="3" t="n">
-        <v>45490.00259259259</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="151">
@@ -8981,7 +8981,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" s="3" t="n">
-        <v>45490.00259259259</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="154">
@@ -9531,7 +9531,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" s="3" t="n">
-        <v>45490.00259259259</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="164">
@@ -9577,7 +9577,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" s="3" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="165">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>notstarted</t>
+          <t>inprogress</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -9623,7 +9623,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" s="3" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="166">
@@ -9669,7 +9669,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" s="3" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="167">
@@ -9715,7 +9715,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" s="3" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="168">
@@ -9761,7 +9761,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" s="3" t="n">
-        <v>45490.00260416666</v>
+        <v>45490.81285879629</v>
       </c>
     </row>
     <row r="169">

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -1181,7 +1181,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1731,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="24">
@@ -2281,7 +2281,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="34">
@@ -8823,7 +8823,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="151">
@@ -8981,7 +8981,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="154">
@@ -9531,7 +9531,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="164">
@@ -9577,7 +9577,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="165">
@@ -9601,12 +9601,18 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>inprogress</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>788854</v>
+      </c>
+      <c r="I165" t="n">
+        <v>164969</v>
+      </c>
+      <c r="J165" t="n">
+        <v>804981</v>
+      </c>
       <c r="K165" s="2" t="n">
         <v>45490</v>
       </c>
@@ -9620,10 +9626,14 @@
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
       <c r="P165" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="166">
@@ -9647,12 +9657,18 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>notstarted</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>789001</v>
+      </c>
+      <c r="I166" t="n">
+        <v>785466</v>
+      </c>
+      <c r="J166" t="n">
+        <v>787598</v>
+      </c>
       <c r="K166" s="2" t="n">
         <v>45490</v>
       </c>
@@ -9666,10 +9682,14 @@
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
       <c r="P166" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="167">
@@ -9693,14 +9713,20 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>notstarted</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>244037</v>
+      </c>
+      <c r="I167" t="n">
+        <v>794590</v>
+      </c>
+      <c r="J167" t="n">
+        <v>784709</v>
+      </c>
       <c r="K167" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -9712,10 +9738,14 @@
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
       <c r="P167" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="168">
@@ -9739,12 +9769,18 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>notstarted</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>788516</v>
+      </c>
+      <c r="I168" t="n">
+        <v>786600</v>
+      </c>
+      <c r="J168" t="n">
+        <v>793051</v>
+      </c>
       <c r="K168" s="2" t="n">
         <v>45490</v>
       </c>
@@ -9758,10 +9794,14 @@
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
       <c r="P168" s="3" t="n">
-        <v>45490.81285879629</v>
+        <v>45491.00299768519</v>
       </c>
     </row>
     <row r="169">

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -60,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:R169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,25 +499,35 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>day_of_week</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>city</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>stadium</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>home_goals</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>away_goals</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>dt_insertion</t>
         </is>
@@ -558,23 +569,31 @@
       <c r="K2" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="n">
+        <v>0.6979166666666666</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -614,23 +633,31 @@
       <c r="K3" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Estádio Beira-Rio</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -670,23 +697,31 @@
       <c r="K4" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -726,23 +761,31 @@
       <c r="K5" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="R5" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -782,23 +825,31 @@
       <c r="K6" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="R6" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -838,23 +889,31 @@
       <c r="K7" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="R7" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -894,23 +953,31 @@
       <c r="K8" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="R8" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -950,23 +1017,31 @@
       <c r="K9" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="n">
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1006,23 +1081,31 @@
       <c r="K10" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>3</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="R10" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1062,23 +1145,31 @@
       <c r="K11" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1118,23 +1209,31 @@
       <c r="K12" s="2" t="n">
         <v>45398</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>2</v>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3" t="n">
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1168,19 +1267,27 @@
       <c r="K13" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" s="3" t="n">
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -1220,23 +1327,31 @@
       <c r="K14" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>2</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="R14" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1276,23 +1391,31 @@
       <c r="K15" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3" t="n">
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1332,23 +1455,31 @@
       <c r="K16" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1388,23 +1519,31 @@
       <c r="K17" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="3" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1444,23 +1583,31 @@
       <c r="K18" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="R18" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1500,23 +1647,31 @@
       <c r="K19" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="n">
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1556,23 +1711,31 @@
       <c r="K20" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="3" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>2</v>
       </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="n">
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1612,23 +1775,31 @@
       <c r="K21" s="2" t="n">
         <v>45400</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="3" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="R21" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1668,23 +1839,31 @@
       <c r="K22" s="2" t="n">
         <v>45448</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="n">
+      <c r="R22" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1718,19 +1897,27 @@
       <c r="K23" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" s="3" t="n">
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -1770,23 +1957,31 @@
       <c r="K24" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>2</v>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="n">
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1826,23 +2021,31 @@
       <c r="K25" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" s="3" t="n">
+      <c r="R25" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1882,23 +2085,31 @@
       <c r="K26" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="n">
+      <c r="R26" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1938,23 +2149,31 @@
       <c r="K27" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>3</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="n">
+      <c r="R27" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -1994,23 +2213,31 @@
       <c r="K28" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" s="3" t="n">
+      <c r="R28" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2050,23 +2277,31 @@
       <c r="K29" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="n">
+      <c r="R29" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2106,23 +2341,31 @@
       <c r="K30" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" s="3" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>2</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="P30" s="3" t="n">
+      <c r="R30" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2162,23 +2405,31 @@
       <c r="K31" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="P31" s="3" t="n">
+      <c r="R31" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2218,23 +2469,31 @@
       <c r="K32" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>5</v>
       </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3" t="n">
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2268,19 +2527,27 @@
       <c r="K33" s="2" t="n">
         <v>45497</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" s="3" t="n">
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -2320,23 +2587,31 @@
       <c r="K34" s="2" t="n">
         <v>45409</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="P34" s="3" t="n">
+      <c r="R34" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2376,23 +2651,31 @@
       <c r="K35" s="2" t="n">
         <v>45409</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" s="3" t="n">
+        <v>0.6979166666666666</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="P35" s="3" t="n">
+      <c r="R35" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2432,23 +2715,31 @@
       <c r="K36" s="2" t="n">
         <v>45409</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" s="3" t="n">
+      <c r="R36" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2488,23 +2779,31 @@
       <c r="K37" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" s="3" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>0</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>2</v>
       </c>
-      <c r="P37" s="3" t="n">
+      <c r="R37" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2544,23 +2843,31 @@
       <c r="K38" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>3</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="P38" s="3" t="n">
+      <c r="R38" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2600,23 +2907,31 @@
       <c r="K39" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" s="3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>3</v>
       </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="3" t="n">
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2656,23 +2971,31 @@
       <c r="K40" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="3" t="n">
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2712,23 +3035,31 @@
       <c r="K41" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="3" t="n">
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2768,23 +3099,31 @@
       <c r="K42" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Estádio Beira-Rio</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="3" t="n">
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2824,23 +3163,31 @@
       <c r="K43" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" s="3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="n">
+      <c r="R43" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2880,23 +3227,31 @@
       <c r="K44" s="2" t="n">
         <v>45416</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>2</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="P44" s="3" t="n">
+      <c r="R44" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2936,23 +3291,31 @@
       <c r="K45" s="2" t="n">
         <v>45416</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="3" t="n">
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -2992,23 +3355,31 @@
       <c r="K46" s="2" t="n">
         <v>45416</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" s="3" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>0</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="n">
+      <c r="R46" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3048,23 +3419,31 @@
       <c r="K47" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="n">
+      <c r="R47" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3104,23 +3483,31 @@
       <c r="K48" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" s="3" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
         <v>3</v>
       </c>
-      <c r="P48" s="3" t="n">
+      <c r="R48" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3160,23 +3547,31 @@
       <c r="K49" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" s="3" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="P49" s="3" t="n">
+      <c r="R49" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3216,23 +3611,31 @@
       <c r="K50" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>0</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>2</v>
       </c>
-      <c r="P50" s="3" t="n">
+      <c r="R50" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3272,23 +3675,31 @@
       <c r="K51" s="2" t="n">
         <v>45448</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" s="3" t="n">
+      <c r="R51" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3328,23 +3739,31 @@
       <c r="K52" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>2</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="n">
+      <c r="R52" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3384,23 +3803,31 @@
       <c r="K53" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="3" t="n">
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3440,23 +3867,31 @@
       <c r="K54" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="3" t="n">
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3496,23 +3931,31 @@
       <c r="K55" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" s="3" t="n">
+        <v>0.6354166666666666</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="P55" s="3" t="n">
+      <c r="R55" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3552,23 +3995,31 @@
       <c r="K56" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" s="3" t="n">
+      <c r="R56" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3608,23 +4059,31 @@
       <c r="K57" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" s="3" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>2</v>
       </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3" t="n">
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3664,23 +4123,31 @@
       <c r="K58" s="2" t="n">
         <v>45425</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" s="3" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>2</v>
       </c>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="3" t="n">
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3720,23 +4187,31 @@
       <c r="K59" s="2" t="n">
         <v>45452</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>2</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="P59" s="3" t="n">
+      <c r="R59" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3776,23 +4251,31 @@
       <c r="K60" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" s="3" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>2</v>
       </c>
-      <c r="P60" s="3" t="n">
+      <c r="R60" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3832,23 +4315,31 @@
       <c r="K61" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>0</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>2</v>
       </c>
-      <c r="P61" s="3" t="n">
+      <c r="R61" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3888,23 +4379,31 @@
       <c r="K62" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="3" t="n">
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -3944,23 +4443,31 @@
       <c r="K63" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" s="3" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="3" t="n">
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4000,23 +4507,31 @@
       <c r="K64" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" s="3" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="P64" t="n">
         <v>0</v>
       </c>
-      <c r="O64" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="3" t="n">
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4056,23 +4571,31 @@
       <c r="K65" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" s="3" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="3" t="n">
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4112,23 +4635,31 @@
       <c r="K66" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
         <v>2</v>
       </c>
-      <c r="P66" s="3" t="n">
+      <c r="R66" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4168,23 +4699,31 @@
       <c r="K67" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" s="3" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
         <v>6</v>
       </c>
-      <c r="P67" s="3" t="n">
+      <c r="R67" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4224,23 +4763,31 @@
       <c r="K68" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="P68" s="3" t="n">
+      <c r="R68" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4280,23 +4827,31 @@
       <c r="K69" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" s="3" t="n">
+        <v>0.6979166666666666</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="P69" t="n">
         <v>2</v>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="P69" s="3" t="n">
+      <c r="R69" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4336,23 +4891,31 @@
       <c r="K70" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N70" t="n">
+      <c r="P70" t="n">
         <v>2</v>
       </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
         <v>2</v>
       </c>
-      <c r="P70" s="3" t="n">
+      <c r="R70" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4392,23 +4955,31 @@
       <c r="K71" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" s="3" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="3" t="n">
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4448,23 +5019,31 @@
       <c r="K72" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="n">
+      <c r="R72" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4504,23 +5083,31 @@
       <c r="K73" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" s="3" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
         <v>2</v>
       </c>
-      <c r="P73" s="3" t="n">
+      <c r="R73" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4560,23 +5147,31 @@
       <c r="K74" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" s="3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="P74" t="n">
         <v>2</v>
       </c>
-      <c r="O74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="3" t="n">
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4616,23 +5211,31 @@
       <c r="K75" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="P75" t="n">
         <v>3</v>
       </c>
-      <c r="O75" t="n">
-        <v>1</v>
-      </c>
-      <c r="P75" s="3" t="n">
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4672,23 +5275,31 @@
       <c r="K76" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="P76" t="n">
         <v>2</v>
       </c>
-      <c r="O76" t="n">
-        <v>1</v>
-      </c>
-      <c r="P76" s="3" t="n">
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4728,23 +5339,31 @@
       <c r="K77" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="P77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="P77" s="3" t="n">
+      <c r="R77" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4784,23 +5403,31 @@
       <c r="K78" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" s="3" t="n">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="P78" s="3" t="n">
+      <c r="R78" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4840,23 +5467,31 @@
       <c r="K79" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" s="3" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N79" t="n">
+      <c r="P79" t="n">
         <v>2</v>
       </c>
-      <c r="O79" t="n">
+      <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="P79" s="3" t="n">
+      <c r="R79" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4896,23 +5531,31 @@
       <c r="K80" s="2" t="n">
         <v>45458</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" s="3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N80" t="n">
+      <c r="P80" t="n">
         <v>2</v>
       </c>
-      <c r="O80" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" s="3" t="n">
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -4952,23 +5595,31 @@
       <c r="K81" s="2" t="n">
         <v>45458</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" s="3" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
         <v>2</v>
       </c>
-      <c r="P81" s="3" t="n">
+      <c r="R81" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5008,23 +5659,31 @@
       <c r="K82" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" s="3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" s="3" t="n">
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5064,23 +5723,31 @@
       <c r="K83" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" s="3" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N83" t="n">
+      <c r="P83" t="n">
         <v>2</v>
       </c>
-      <c r="O83" t="n">
+      <c r="Q83" t="n">
         <v>2</v>
       </c>
-      <c r="P83" s="3" t="n">
+      <c r="R83" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5120,23 +5787,31 @@
       <c r="K84" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N84" t="n">
+      <c r="P84" t="n">
         <v>2</v>
       </c>
-      <c r="O84" t="n">
-        <v>1</v>
-      </c>
-      <c r="P84" s="3" t="n">
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5176,23 +5851,31 @@
       <c r="K85" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N85" t="n">
+      <c r="P85" t="n">
         <v>2</v>
       </c>
-      <c r="O85" t="n">
+      <c r="Q85" t="n">
         <v>2</v>
       </c>
-      <c r="P85" s="3" t="n">
+      <c r="R85" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5232,23 +5915,31 @@
       <c r="K86" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" s="3" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="P86" t="n">
         <v>5</v>
       </c>
-      <c r="O86" t="n">
+      <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="P86" s="3" t="n">
+      <c r="R86" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5288,23 +5979,31 @@
       <c r="K87" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" s="3" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>Cariacica</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>Estádio Kleber Andrade</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
         <v>2</v>
       </c>
-      <c r="P87" s="3" t="n">
+      <c r="R87" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5344,23 +6043,31 @@
       <c r="K88" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="P88" t="n">
         <v>0</v>
       </c>
-      <c r="O88" t="n">
+      <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="P88" s="3" t="n">
+      <c r="R88" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5400,23 +6107,31 @@
       <c r="K89" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N89" t="n">
+      <c r="P89" t="n">
         <v>0</v>
       </c>
-      <c r="O89" t="n">
+      <c r="Q89" t="n">
         <v>4</v>
       </c>
-      <c r="P89" s="3" t="n">
+      <c r="R89" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5456,23 +6171,31 @@
       <c r="K90" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
         <v>2</v>
       </c>
-      <c r="P90" s="3" t="n">
+      <c r="R90" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5512,23 +6235,31 @@
       <c r="K91" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" s="3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1</v>
-      </c>
-      <c r="P91" s="3" t="n">
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5568,23 +6299,31 @@
       <c r="K92" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="P92" s="3" t="n">
+      <c r="R92" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5624,23 +6363,31 @@
       <c r="K93" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="P93" t="n">
         <v>2</v>
       </c>
-      <c r="O93" t="n">
+      <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="P93" s="3" t="n">
+      <c r="R93" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5680,23 +6427,31 @@
       <c r="K94" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" s="3" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="P94" t="n">
         <v>0</v>
       </c>
-      <c r="O94" t="n">
-        <v>1</v>
-      </c>
-      <c r="P94" s="3" t="n">
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5736,23 +6491,31 @@
       <c r="K95" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="P95" t="n">
         <v>2</v>
       </c>
-      <c r="O95" t="n">
+      <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="P95" s="3" t="n">
+      <c r="R95" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5792,23 +6555,31 @@
       <c r="K96" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
         <is>
           <t>Florianópolis</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Orlando Scarpelli</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="P96" s="3" t="n">
+      <c r="R96" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5848,23 +6619,31 @@
       <c r="K97" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="P97" t="n">
         <v>4</v>
       </c>
-      <c r="O97" t="n">
+      <c r="Q97" t="n">
         <v>2</v>
       </c>
-      <c r="P97" s="3" t="n">
+      <c r="R97" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5904,23 +6683,31 @@
       <c r="K98" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" s="3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="P98" t="n">
         <v>2</v>
       </c>
-      <c r="O98" t="n">
-        <v>1</v>
-      </c>
-      <c r="P98" s="3" t="n">
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -5960,23 +6747,31 @@
       <c r="K99" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" s="3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="P99" t="n">
         <v>2</v>
       </c>
-      <c r="O99" t="n">
-        <v>1</v>
-      </c>
-      <c r="P99" s="3" t="n">
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6016,23 +6811,31 @@
       <c r="K100" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="P100" t="n">
         <v>2</v>
       </c>
-      <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" s="3" t="n">
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6072,23 +6875,31 @@
       <c r="K101" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" s="3" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>Estádio Couto Pereira</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="P101" t="n">
         <v>0</v>
       </c>
-      <c r="O101" t="n">
-        <v>1</v>
-      </c>
-      <c r="P101" s="3" t="n">
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6128,23 +6939,31 @@
       <c r="K102" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" s="3" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="P102" t="n">
         <v>0</v>
       </c>
-      <c r="O102" t="n">
+      <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="n">
+      <c r="R102" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6184,23 +7003,31 @@
       <c r="K103" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="P103" t="n">
         <v>4</v>
       </c>
-      <c r="O103" t="n">
-        <v>1</v>
-      </c>
-      <c r="P103" s="3" t="n">
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6240,23 +7067,31 @@
       <c r="K104" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" s="3" t="n">
+        <v>0.6979166666666666</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1</v>
-      </c>
-      <c r="P104" s="3" t="n">
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6296,23 +7131,31 @@
       <c r="K105" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" s="3" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="P105" t="n">
         <v>4</v>
       </c>
-      <c r="O105" t="n">
-        <v>1</v>
-      </c>
-      <c r="P105" s="3" t="n">
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6352,23 +7195,31 @@
       <c r="K106" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="P106" t="n">
         <v>0</v>
       </c>
-      <c r="O106" t="n">
-        <v>1</v>
-      </c>
-      <c r="P106" s="3" t="n">
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6408,23 +7259,31 @@
       <c r="K107" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-      <c r="O107" t="n">
-        <v>1</v>
-      </c>
-      <c r="P107" s="3" t="n">
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6464,23 +7323,31 @@
       <c r="K108" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" s="3" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="P108" t="n">
         <v>3</v>
       </c>
-      <c r="O108" t="n">
-        <v>1</v>
-      </c>
-      <c r="P108" s="3" t="n">
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6520,23 +7387,31 @@
       <c r="K109" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="P109" t="n">
         <v>2</v>
       </c>
-      <c r="O109" t="n">
-        <v>1</v>
-      </c>
-      <c r="P109" s="3" t="n">
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6576,23 +7451,31 @@
       <c r="K110" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" s="3" t="n">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="P110" t="n">
         <v>2</v>
       </c>
-      <c r="O110" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" s="3" t="n">
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6632,23 +7515,31 @@
       <c r="K111" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="P111" t="n">
         <v>2</v>
       </c>
-      <c r="O111" t="n">
+      <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="P111" s="3" t="n">
+      <c r="R111" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6688,23 +7579,31 @@
       <c r="K112" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="L112" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" s="3" t="n">
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6744,23 +7643,31 @@
       <c r="K113" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" s="3" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-      <c r="O113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P113" s="3" t="n">
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6800,23 +7707,31 @@
       <c r="K114" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="P114" t="n">
         <v>2</v>
       </c>
-      <c r="O114" t="n">
-        <v>1</v>
-      </c>
-      <c r="P114" s="3" t="n">
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6856,23 +7771,31 @@
       <c r="K115" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L115" s="3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="P115" t="n">
         <v>2</v>
       </c>
-      <c r="O115" t="n">
-        <v>1</v>
-      </c>
-      <c r="P115" s="3" t="n">
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6912,23 +7835,31 @@
       <c r="K116" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" s="3" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="P116" t="n">
         <v>3</v>
       </c>
-      <c r="O116" t="n">
+      <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="P116" s="3" t="n">
+      <c r="R116" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -6968,23 +7899,31 @@
       <c r="K117" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" s="3" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>Estádio Beira-Rio</t>
         </is>
       </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-      <c r="O117" t="n">
+      <c r="P117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="n">
         <v>2</v>
       </c>
-      <c r="P117" s="3" t="n">
+      <c r="R117" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7024,23 +7963,31 @@
       <c r="K118" s="2" t="n">
         <v>45470</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="P118" t="n">
         <v>0</v>
       </c>
-      <c r="O118" t="n">
-        <v>1</v>
-      </c>
-      <c r="P118" s="3" t="n">
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7080,23 +8027,31 @@
       <c r="K119" s="2" t="n">
         <v>45470</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" s="3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="P119" t="n">
         <v>2</v>
       </c>
-      <c r="O119" t="n">
-        <v>1</v>
-      </c>
-      <c r="P119" s="3" t="n">
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7136,23 +8091,31 @@
       <c r="K120" s="2" t="n">
         <v>45472</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-      <c r="O120" t="n">
-        <v>1</v>
-      </c>
-      <c r="P120" s="3" t="n">
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7192,23 +8155,31 @@
       <c r="K121" s="2" t="n">
         <v>45472</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-      <c r="O121" t="n">
-        <v>1</v>
-      </c>
-      <c r="P121" s="3" t="n">
+      <c r="P121" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7248,23 +8219,31 @@
       <c r="K122" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L122" s="3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>1</v>
-      </c>
-      <c r="O122" t="n">
-        <v>1</v>
-      </c>
-      <c r="P122" s="3" t="n">
+      <c r="P122" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7304,23 +8283,31 @@
       <c r="K123" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L123" s="3" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N123" t="n">
+      <c r="P123" t="n">
         <v>2</v>
       </c>
-      <c r="O123" t="n">
-        <v>1</v>
-      </c>
-      <c r="P123" s="3" t="n">
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7360,23 +8347,31 @@
       <c r="K124" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L124" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
-      <c r="O124" t="n">
+      <c r="P124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="P124" s="3" t="n">
+      <c r="R124" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7416,23 +8411,31 @@
       <c r="K125" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L125" s="3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="P125" t="n">
         <v>3</v>
       </c>
-      <c r="O125" t="n">
-        <v>1</v>
-      </c>
-      <c r="P125" s="3" t="n">
+      <c r="Q125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R125" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7472,23 +8475,31 @@
       <c r="K126" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L126" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N126" t="n">
-        <v>1</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1</v>
-      </c>
-      <c r="P126" s="3" t="n">
+      <c r="P126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7528,23 +8539,31 @@
       <c r="K127" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="L127" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="P127" t="n">
         <v>2</v>
       </c>
-      <c r="O127" t="n">
-        <v>1</v>
-      </c>
-      <c r="P127" s="3" t="n">
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7584,23 +8603,31 @@
       <c r="K128" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="L128" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="O128" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="O128" t="n">
-        <v>1</v>
-      </c>
-      <c r="P128" s="3" t="n">
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7640,23 +8667,31 @@
       <c r="K129" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L129" s="3" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="O129" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="P129" t="n">
         <v>2</v>
       </c>
-      <c r="O129" t="n">
+      <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="P129" s="3" t="n">
+      <c r="R129" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7696,23 +8731,31 @@
       <c r="K130" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L130" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="O130" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>1</v>
-      </c>
-      <c r="O130" t="n">
+      <c r="P130" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q130" t="n">
         <v>2</v>
       </c>
-      <c r="P130" s="3" t="n">
+      <c r="R130" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7752,23 +8795,31 @@
       <c r="K131" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L131" s="3" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N131" t="n">
-        <v>1</v>
-      </c>
-      <c r="O131" t="n">
+      <c r="P131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="P131" s="3" t="n">
+      <c r="R131" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7808,23 +8859,31 @@
       <c r="K132" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L132" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="O132" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="P132" t="n">
         <v>2</v>
       </c>
-      <c r="O132" t="n">
+      <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="P132" s="3" t="n">
+      <c r="R132" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7864,23 +8923,31 @@
       <c r="K133" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L133" s="3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="O133" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>1</v>
-      </c>
-      <c r="O133" t="n">
+      <c r="P133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q133" t="n">
         <v>2</v>
       </c>
-      <c r="P133" s="3" t="n">
+      <c r="R133" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7920,23 +8987,31 @@
       <c r="K134" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L134" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="O134" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N134" t="n">
+      <c r="P134" t="n">
         <v>2</v>
       </c>
-      <c r="O134" t="n">
+      <c r="Q134" t="n">
         <v>4</v>
       </c>
-      <c r="P134" s="3" t="n">
+      <c r="R134" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -7976,23 +9051,31 @@
       <c r="K135" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L135" s="3" t="n">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="O135" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="P135" t="n">
         <v>3</v>
       </c>
-      <c r="O135" t="n">
-        <v>1</v>
-      </c>
-      <c r="P135" s="3" t="n">
+      <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8032,23 +9115,31 @@
       <c r="K136" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="L136" s="3" t="n">
+        <v>0.6979166666666666</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="O136" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="P136" t="n">
         <v>2</v>
       </c>
-      <c r="O136" t="n">
+      <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="P136" s="3" t="n">
+      <c r="R136" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8088,23 +9179,31 @@
       <c r="K137" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L137" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="O137" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="P137" t="n">
         <v>2</v>
       </c>
-      <c r="O137" t="n">
+      <c r="Q137" t="n">
         <v>2</v>
       </c>
-      <c r="P137" s="3" t="n">
+      <c r="R137" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8144,23 +9243,31 @@
       <c r="K138" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L138" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="O138" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="P138" t="n">
         <v>3</v>
       </c>
-      <c r="O138" t="n">
+      <c r="Q138" t="n">
         <v>2</v>
       </c>
-      <c r="P138" s="3" t="n">
+      <c r="R138" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8200,23 +9307,31 @@
       <c r="K139" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="L139" s="3" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="O139" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N139" t="n">
-        <v>1</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1</v>
-      </c>
-      <c r="P139" s="3" t="n">
+      <c r="P139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1</v>
+      </c>
+      <c r="R139" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8256,23 +9371,31 @@
       <c r="K140" s="2" t="n">
         <v>45479</v>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L140" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N140" t="n">
-        <v>1</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1</v>
-      </c>
-      <c r="P140" s="3" t="n">
+      <c r="P140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8312,23 +9435,31 @@
       <c r="K141" s="2" t="n">
         <v>45479</v>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L141" s="3" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="O141" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N141" t="n">
+      <c r="P141" t="n">
         <v>2</v>
       </c>
-      <c r="O141" t="n">
+      <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="P141" s="3" t="n">
+      <c r="R141" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8368,23 +9499,31 @@
       <c r="K142" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L142" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="O142" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="P142" t="n">
         <v>3</v>
       </c>
-      <c r="O142" t="n">
+      <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="P142" s="3" t="n">
+      <c r="R142" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8424,23 +9563,31 @@
       <c r="K143" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L143" s="3" t="n">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="O143" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N143" t="n">
-        <v>1</v>
-      </c>
-      <c r="O143" t="n">
+      <c r="P143" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="P143" s="3" t="n">
+      <c r="R143" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8480,23 +9627,31 @@
       <c r="K144" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="L144" s="3" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="O144" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="P144" t="n">
         <v>3</v>
       </c>
-      <c r="O144" t="n">
+      <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="P144" s="3" t="n">
+      <c r="R144" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8536,23 +9691,31 @@
       <c r="K145" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="L145" s="3" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="O145" t="inlineStr">
         <is>
           <t>Estádio Beira-Rio</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>1</v>
-      </c>
-      <c r="O145" t="n">
+      <c r="P145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q145" t="n">
         <v>2</v>
       </c>
-      <c r="P145" s="3" t="n">
+      <c r="R145" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8592,23 +9755,31 @@
       <c r="K146" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="L146" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="O146" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N146" t="n">
-        <v>1</v>
-      </c>
-      <c r="O146" t="n">
+      <c r="P146" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q146" t="n">
         <v>2</v>
       </c>
-      <c r="P146" s="3" t="n">
+      <c r="R146" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8648,23 +9819,31 @@
       <c r="K147" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="L147" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="P147" t="n">
         <v>2</v>
       </c>
-      <c r="O147" t="n">
+      <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="P147" s="3" t="n">
+      <c r="R147" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8704,23 +9883,31 @@
       <c r="K148" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="L148" s="3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="P148" t="n">
         <v>2</v>
       </c>
-      <c r="O148" t="n">
-        <v>1</v>
-      </c>
-      <c r="P148" s="3" t="n">
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8760,23 +9947,31 @@
       <c r="K149" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="L149" s="3" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="O149" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="P149" t="n">
         <v>3</v>
       </c>
-      <c r="O149" t="n">
+      <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="P149" s="3" t="n">
+      <c r="R149" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8810,19 +10005,27 @@
       <c r="K150" s="2" t="n">
         <v>45482</v>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="L150" s="3" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
         <is>
           <t>Bragança Paulista</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" s="3" t="n">
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -8862,23 +10065,31 @@
       <c r="K151" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="L151" s="3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>Arena do Grêmio</t>
         </is>
       </c>
-      <c r="N151" t="n">
+      <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="O151" t="n">
+      <c r="Q151" t="n">
         <v>2</v>
       </c>
-      <c r="P151" s="3" t="n">
+      <c r="R151" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8918,23 +10129,31 @@
       <c r="K152" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="L152" s="3" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="O152" t="inlineStr">
         <is>
           <t>Ligga Arena</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
-      <c r="O152" t="n">
+      <c r="P152" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q152" t="n">
         <v>3</v>
       </c>
-      <c r="P152" s="3" t="n">
+      <c r="R152" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -8968,19 +10187,27 @@
       <c r="K153" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="L153" s="3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="O153" t="inlineStr">
         <is>
           <t>Arena Pantanal</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" s="3" t="n">
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9020,23 +10247,31 @@
       <c r="K154" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="L154" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="O154" t="inlineStr">
         <is>
           <t>Estádio São Januário</t>
         </is>
       </c>
-      <c r="N154" t="n">
+      <c r="P154" t="n">
         <v>2</v>
       </c>
-      <c r="O154" t="n">
+      <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="P154" s="3" t="n">
+      <c r="R154" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9076,23 +10311,31 @@
       <c r="K155" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L155" t="inlineStr">
+      <c r="L155" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="O155" t="inlineStr">
         <is>
           <t>Allianz Parque</t>
         </is>
       </c>
-      <c r="N155" t="n">
+      <c r="P155" t="n">
         <v>3</v>
       </c>
-      <c r="O155" t="n">
-        <v>1</v>
-      </c>
-      <c r="P155" s="3" t="n">
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9132,23 +10375,31 @@
       <c r="K156" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="L156" s="3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
         <is>
           <t>Criciúma</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="O156" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse</t>
         </is>
       </c>
-      <c r="N156" t="n">
-        <v>1</v>
-      </c>
-      <c r="O156" t="n">
-        <v>1</v>
-      </c>
-      <c r="P156" s="3" t="n">
+      <c r="P156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R156" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9188,23 +10439,31 @@
       <c r="K157" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="L157" s="3" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="O157" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N157" t="n">
-        <v>1</v>
-      </c>
-      <c r="O157" t="n">
+      <c r="P157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q157" t="n">
         <v>2</v>
       </c>
-      <c r="P157" s="3" t="n">
+      <c r="R157" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9244,23 +10503,31 @@
       <c r="K158" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="L158" s="3" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="O158" t="inlineStr">
         <is>
           <t>Arena MRV</t>
         </is>
       </c>
-      <c r="N158" t="n">
+      <c r="P158" t="n">
         <v>2</v>
       </c>
-      <c r="O158" t="n">
-        <v>1</v>
-      </c>
-      <c r="P158" s="3" t="n">
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R158" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9300,23 +10567,31 @@
       <c r="K159" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L159" t="inlineStr">
+      <c r="L159" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="O159" t="inlineStr">
         <is>
           <t>Estádio Manoel Barradas</t>
         </is>
       </c>
-      <c r="N159" t="n">
+      <c r="P159" t="n">
         <v>0</v>
       </c>
-      <c r="O159" t="n">
-        <v>1</v>
-      </c>
-      <c r="P159" s="3" t="n">
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9356,23 +10631,31 @@
       <c r="K160" s="2" t="n">
         <v>45486</v>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="L160" s="3" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="O160" t="inlineStr">
         <is>
           <t>Arena Fonte Nova</t>
         </is>
       </c>
-      <c r="N160" t="n">
-        <v>1</v>
-      </c>
-      <c r="O160" t="n">
+      <c r="P160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q160" t="n">
         <v>2</v>
       </c>
-      <c r="P160" s="3" t="n">
+      <c r="R160" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9412,23 +10695,31 @@
       <c r="K161" s="2" t="n">
         <v>45486</v>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="L161" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
+      <c r="O161" t="inlineStr">
         <is>
           <t>Governador Magalhães Pinto</t>
         </is>
       </c>
-      <c r="N161" t="n">
+      <c r="P161" t="n">
         <v>2</v>
       </c>
-      <c r="O161" t="n">
-        <v>1</v>
-      </c>
-      <c r="P161" s="3" t="n">
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9468,23 +10759,31 @@
       <c r="K162" s="2" t="n">
         <v>45489</v>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="L162" s="3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
         <is>
           <t>Caxias do Sul</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>Estádio Alfredo Jaconi</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>1</v>
-      </c>
-      <c r="O162" t="n">
-        <v>1</v>
-      </c>
-      <c r="P162" s="3" t="n">
+      <c r="P162" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" s="4" t="n">
         <v>45489.90765046296</v>
       </c>
     </row>
@@ -9518,19 +10817,27 @@
       <c r="K163" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="L163" s="3" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="O163" t="inlineStr">
         <is>
           <t>Estádio do Maracanã</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" s="3" t="n">
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9564,19 +10871,27 @@
       <c r="K164" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L164" t="inlineStr">
+      <c r="L164" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="O164" t="inlineStr">
         <is>
           <t>Estádio Beira-Rio</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" s="3" t="n">
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9616,23 +10931,31 @@
       <c r="K165" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="L165" s="3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
         <is>
           <t>Goiânia</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>Estádio Antônio Accioly</t>
         </is>
       </c>
-      <c r="N165" t="n">
+      <c r="P165" t="n">
         <v>0</v>
       </c>
-      <c r="O165" t="n">
-        <v>1</v>
-      </c>
-      <c r="P165" s="3" t="n">
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9672,23 +10995,31 @@
       <c r="K166" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="L166" s="3" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="O166" t="inlineStr">
         <is>
           <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
-      <c r="N166" t="n">
-        <v>1</v>
-      </c>
-      <c r="O166" t="n">
+      <c r="P166" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="P166" s="3" t="n">
+      <c r="R166" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9728,23 +11059,31 @@
       <c r="K167" s="2" t="n">
         <v>45491</v>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="L167" s="3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>Estádio Nilton Santos</t>
         </is>
       </c>
-      <c r="N167" t="n">
-        <v>1</v>
-      </c>
-      <c r="O167" t="n">
+      <c r="P167" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="P167" s="3" t="n">
+      <c r="R167" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9784,23 +11123,31 @@
       <c r="K168" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="L168" s="3" t="n">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="O168" t="inlineStr">
         <is>
           <t>Estádio Castelão</t>
         </is>
       </c>
-      <c r="N168" t="n">
+      <c r="P168" t="n">
         <v>3</v>
       </c>
-      <c r="O168" t="n">
-        <v>1</v>
-      </c>
-      <c r="P168" s="3" t="n">
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" s="4" t="n">
         <v>45491.00299768519</v>
       </c>
     </row>
@@ -9840,23 +11187,31 @@
       <c r="K169" s="2" t="n">
         <v>45489</v>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="L169" s="3" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
+      <c r="O169" t="inlineStr">
         <is>
           <t>Neo Química Arena</t>
         </is>
       </c>
-      <c r="N169" t="n">
+      <c r="P169" t="n">
         <v>2</v>
       </c>
-      <c r="O169" t="n">
-        <v>1</v>
-      </c>
-      <c r="P169" s="3" t="n">
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" s="4" t="n">
         <v>45490.00259259259</v>
       </c>
     </row>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -60,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R169"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,8 +568,10 @@
       <c r="K2" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L2" s="3" t="n">
-        <v>0.6979166666666666</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -593,8 +594,8 @@
       <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R2" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="3">
@@ -625,7 +626,7 @@
         <v>788693</v>
       </c>
       <c r="I3" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="J3" t="n">
         <v>787735</v>
@@ -633,8 +634,10 @@
       <c r="K3" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L3" s="3" t="n">
-        <v>0.75</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -657,8 +660,8 @@
       <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R3" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="4">
@@ -697,8 +700,10 @@
       <c r="K4" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L4" s="3" t="n">
-        <v>0.9166666666666666</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -721,8 +726,8 @@
       <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R4" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="5">
@@ -761,8 +766,10 @@
       <c r="K5" s="2" t="n">
         <v>45395</v>
       </c>
-      <c r="L5" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -785,8 +792,8 @@
       <c r="Q5" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R5" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="6">
@@ -817,7 +824,7 @@
         <v>788983</v>
       </c>
       <c r="I6" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J6" t="n">
         <v>5474</v>
@@ -825,8 +832,10 @@
       <c r="K6" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L6" s="3" t="n">
-        <v>0.6041666666666666</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -849,8 +858,8 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R6" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="7">
@@ -881,7 +890,7 @@
         <v>788875</v>
       </c>
       <c r="I7" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="J7" t="n">
         <v>784663</v>
@@ -889,8 +898,10 @@
       <c r="K7" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -913,8 +924,8 @@
       <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R7" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="8">
@@ -945,7 +956,7 @@
         <v>788845</v>
       </c>
       <c r="I8" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J8" t="n">
         <v>784886</v>
@@ -953,8 +964,10 @@
       <c r="K8" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L8" s="3" t="n">
-        <v>0.7083333333333334</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -977,8 +990,8 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R8" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="9">
@@ -1017,8 +1030,10 @@
       <c r="K9" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L9" s="3" t="n">
-        <v>0.59375</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1041,8 +1056,8 @@
       <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R9" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="10">
@@ -1081,8 +1096,10 @@
       <c r="K10" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L10" s="3" t="n">
-        <v>0.6875</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1105,8 +1122,8 @@
       <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R10" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="11">
@@ -1145,8 +1162,10 @@
       <c r="K11" s="2" t="n">
         <v>45396</v>
       </c>
-      <c r="L11" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1169,8 +1188,8 @@
       <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R11" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="12">
@@ -1209,8 +1228,10 @@
       <c r="K12" s="2" t="n">
         <v>45398</v>
       </c>
-      <c r="L12" s="3" t="n">
-        <v>0.7916666666666666</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1233,8 +1254,8 @@
       <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R12" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="13">
@@ -1267,8 +1288,10 @@
       <c r="K13" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L13" s="3" t="n">
-        <v>0.59375</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1287,8 +1310,8 @@
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R13" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="14">
@@ -1322,13 +1345,15 @@
         <v>787598</v>
       </c>
       <c r="J14" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L14" s="3" t="n">
-        <v>0.7083333333333334</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1351,8 +1376,8 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R14" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="15">
@@ -1391,8 +1416,10 @@
       <c r="K15" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L15" s="3" t="n">
-        <v>0.8020833333333334</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1415,8 +1442,8 @@
       <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R15" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="16">
@@ -1455,8 +1482,10 @@
       <c r="K16" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L16" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1479,8 +1508,8 @@
       <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R16" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="17">
@@ -1519,8 +1548,10 @@
       <c r="K17" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L17" s="3" t="n">
-        <v>0.8958333333333334</v>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1543,8 +1574,8 @@
       <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R17" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="18">
@@ -1578,13 +1609,15 @@
         <v>784982</v>
       </c>
       <c r="J18" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L18" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1607,8 +1640,8 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R18" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="19">
@@ -1642,13 +1675,15 @@
         <v>784709</v>
       </c>
       <c r="J19" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L19" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1671,8 +1706,8 @@
       <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R19" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="20">
@@ -1711,8 +1746,10 @@
       <c r="K20" s="2" t="n">
         <v>45399</v>
       </c>
-      <c r="L20" s="3" t="n">
-        <v>0.9166666666666666</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1735,8 +1772,8 @@
       <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R20" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="21">
@@ -1770,13 +1807,15 @@
         <v>794590</v>
       </c>
       <c r="J21" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>45400</v>
       </c>
-      <c r="L21" s="3" t="n">
-        <v>0.9270833333333334</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1799,8 +1838,8 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R21" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="22">
@@ -1839,8 +1878,10 @@
       <c r="K22" s="2" t="n">
         <v>45448</v>
       </c>
-      <c r="L22" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1863,8 +1904,8 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R22" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="23">
@@ -1897,8 +1938,10 @@
       <c r="K23" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L23" s="3" t="n">
-        <v>0.6666666666666666</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1917,8 +1960,8 @@
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R23" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="24">
@@ -1957,8 +2000,10 @@
       <c r="K24" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L24" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1981,8 +2026,8 @@
       <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R24" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="25">
@@ -2021,8 +2066,10 @@
       <c r="K25" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L25" s="3" t="n">
-        <v>0.8020833333333334</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2045,8 +2092,8 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R25" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="26">
@@ -2080,13 +2127,15 @@
         <v>125341</v>
       </c>
       <c r="J26" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L26" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2109,8 +2158,8 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R26" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="27">
@@ -2149,8 +2198,10 @@
       <c r="K27" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="L27" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2173,8 +2224,8 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R27" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="28">
@@ -2205,16 +2256,18 @@
         <v>787245</v>
       </c>
       <c r="I28" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J28" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L28" s="3" t="n">
-        <v>0.625</v>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2237,8 +2290,8 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R28" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="29">
@@ -2277,8 +2330,10 @@
       <c r="K29" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L29" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2301,8 +2356,8 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R29" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="30">
@@ -2341,8 +2396,10 @@
       <c r="K30" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L30" s="3" t="n">
-        <v>0.6458333333333334</v>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2365,8 +2422,8 @@
       <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R30" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="31">
@@ -2397,7 +2454,7 @@
         <v>554152</v>
       </c>
       <c r="I31" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="J31" t="n">
         <v>785466</v>
@@ -2405,8 +2462,10 @@
       <c r="K31" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L31" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2429,8 +2488,8 @@
       <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="R31" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R31" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="32">
@@ -2469,8 +2528,10 @@
       <c r="K32" s="2" t="n">
         <v>45403</v>
       </c>
-      <c r="L32" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2493,8 +2554,8 @@
       <c r="Q32" t="n">
         <v>1</v>
       </c>
-      <c r="R32" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R32" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="33">
@@ -2527,8 +2588,10 @@
       <c r="K33" s="2" t="n">
         <v>45497</v>
       </c>
-      <c r="L33" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2547,8 +2610,8 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R33" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="34">
@@ -2587,8 +2650,10 @@
       <c r="K34" s="2" t="n">
         <v>45409</v>
       </c>
-      <c r="L34" s="3" t="n">
-        <v>0.6666666666666666</v>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2611,8 +2676,8 @@
       <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="R34" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R34" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="35">
@@ -2651,8 +2716,10 @@
       <c r="K35" s="2" t="n">
         <v>45409</v>
       </c>
-      <c r="L35" s="3" t="n">
-        <v>0.6979166666666666</v>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2675,8 +2742,8 @@
       <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="R35" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R35" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="36">
@@ -2715,8 +2782,10 @@
       <c r="K36" s="2" t="n">
         <v>45409</v>
       </c>
-      <c r="L36" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2739,8 +2808,8 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R36" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="37">
@@ -2779,8 +2848,10 @@
       <c r="K37" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L37" s="3" t="n">
-        <v>0.3958333333333333</v>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2803,8 +2874,8 @@
       <c r="Q37" t="n">
         <v>2</v>
       </c>
-      <c r="R37" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R37" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="38">
@@ -2835,7 +2906,7 @@
         <v>787576</v>
       </c>
       <c r="I38" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J38" t="n">
         <v>108391</v>
@@ -2843,8 +2914,10 @@
       <c r="K38" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L38" s="3" t="n">
-        <v>0.59375</v>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2867,8 +2940,8 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R38" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="39">
@@ -2907,8 +2980,10 @@
       <c r="K39" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L39" s="3" t="n">
-        <v>0.7083333333333334</v>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2931,8 +3006,8 @@
       <c r="Q39" t="n">
         <v>1</v>
       </c>
-      <c r="R39" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R39" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="40">
@@ -2971,8 +3046,10 @@
       <c r="K40" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L40" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2995,8 +3072,8 @@
       <c r="Q40" t="n">
         <v>1</v>
       </c>
-      <c r="R40" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R40" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="41">
@@ -3030,13 +3107,15 @@
         <v>784982</v>
       </c>
       <c r="J41" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L41" s="3" t="n">
-        <v>0.6666666666666666</v>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3059,8 +3138,8 @@
       <c r="Q41" t="n">
         <v>1</v>
       </c>
-      <c r="R41" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R41" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="42">
@@ -3091,16 +3170,18 @@
         <v>787181</v>
       </c>
       <c r="I42" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="J42" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="L42" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3123,8 +3204,8 @@
       <c r="Q42" t="n">
         <v>1</v>
       </c>
-      <c r="R42" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R42" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="43">
@@ -3163,8 +3244,10 @@
       <c r="K43" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="L43" s="3" t="n">
-        <v>0.9375</v>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3187,8 +3270,8 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R43" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="44">
@@ -3227,8 +3310,10 @@
       <c r="K44" s="2" t="n">
         <v>45416</v>
       </c>
-      <c r="L44" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3251,8 +3336,8 @@
       <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="R44" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R44" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="45">
@@ -3291,8 +3376,10 @@
       <c r="K45" s="2" t="n">
         <v>45416</v>
       </c>
-      <c r="L45" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3315,8 +3402,8 @@
       <c r="Q45" t="n">
         <v>1</v>
       </c>
-      <c r="R45" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R45" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="46">
@@ -3347,7 +3434,7 @@
         <v>787245</v>
       </c>
       <c r="I46" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J46" t="n">
         <v>786600</v>
@@ -3355,8 +3442,10 @@
       <c r="K46" s="2" t="n">
         <v>45416</v>
       </c>
-      <c r="L46" s="3" t="n">
-        <v>0.8541666666666666</v>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3379,8 +3468,8 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R46" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="47">
@@ -3411,7 +3500,7 @@
         <v>244037</v>
       </c>
       <c r="I47" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J47" t="n">
         <v>804981</v>
@@ -3419,8 +3508,10 @@
       <c r="K47" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L47" s="3" t="n">
-        <v>0.5625</v>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3443,8 +3534,8 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R47" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="48">
@@ -3483,8 +3574,10 @@
       <c r="K48" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L48" s="3" t="n">
-        <v>0.6145833333333334</v>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3507,8 +3600,8 @@
       <c r="Q48" t="n">
         <v>3</v>
       </c>
-      <c r="R48" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R48" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="49">
@@ -3547,8 +3640,10 @@
       <c r="K49" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L49" s="3" t="n">
-        <v>0.71875</v>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3571,8 +3666,8 @@
       <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R49" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R49" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="50">
@@ -3611,8 +3706,10 @@
       <c r="K50" s="2" t="n">
         <v>45417</v>
       </c>
-      <c r="L50" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3635,8 +3732,8 @@
       <c r="Q50" t="n">
         <v>2</v>
       </c>
-      <c r="R50" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R50" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="51">
@@ -3670,13 +3767,15 @@
         <v>784982</v>
       </c>
       <c r="J51" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>45448</v>
       </c>
-      <c r="L51" s="3" t="n">
-        <v>0.6875</v>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3699,8 +3798,8 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R51" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="52">
@@ -3734,13 +3833,15 @@
         <v>784663</v>
       </c>
       <c r="J52" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="L52" s="3" t="n">
-        <v>0.5625</v>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3763,8 +3864,8 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R52" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="53">
@@ -3795,7 +3896,7 @@
         <v>788693</v>
       </c>
       <c r="I53" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="J53" t="n">
         <v>801563</v>
@@ -3803,8 +3904,10 @@
       <c r="K53" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L53" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3827,8 +3930,8 @@
       <c r="Q53" t="n">
         <v>1</v>
       </c>
-      <c r="R53" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R53" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="54">
@@ -3867,8 +3970,10 @@
       <c r="K54" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L54" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3891,8 +3996,8 @@
       <c r="Q54" t="n">
         <v>1</v>
       </c>
-      <c r="R54" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R54" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="55">
@@ -3926,13 +4031,15 @@
         <v>784709</v>
       </c>
       <c r="J55" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L55" s="3" t="n">
-        <v>0.6354166666666666</v>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3955,8 +4062,8 @@
       <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="R55" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R55" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="56">
@@ -3995,8 +4102,10 @@
       <c r="K56" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L56" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -4019,8 +4128,8 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R56" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="57">
@@ -4059,8 +4168,10 @@
       <c r="K57" s="2" t="n">
         <v>45424</v>
       </c>
-      <c r="L57" s="3" t="n">
-        <v>0.78125</v>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4083,8 +4194,8 @@
       <c r="Q57" t="n">
         <v>1</v>
       </c>
-      <c r="R57" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R57" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="58">
@@ -4123,8 +4234,10 @@
       <c r="K58" s="2" t="n">
         <v>45425</v>
       </c>
-      <c r="L58" s="3" t="n">
-        <v>0.7708333333333334</v>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4147,8 +4260,8 @@
       <c r="Q58" t="n">
         <v>1</v>
       </c>
-      <c r="R58" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R58" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="59">
@@ -4187,8 +4300,10 @@
       <c r="K59" s="2" t="n">
         <v>45452</v>
       </c>
-      <c r="L59" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4211,8 +4326,8 @@
       <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R59" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="60">
@@ -4251,8 +4366,10 @@
       <c r="K60" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L60" s="3" t="n">
-        <v>0.71875</v>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4275,8 +4392,8 @@
       <c r="Q60" t="n">
         <v>2</v>
       </c>
-      <c r="R60" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R60" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="61">
@@ -4315,8 +4432,10 @@
       <c r="K61" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L61" s="3" t="n">
-        <v>0.625</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4339,8 +4458,8 @@
       <c r="Q61" t="n">
         <v>2</v>
       </c>
-      <c r="R61" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R61" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="62">
@@ -4374,13 +4493,15 @@
         <v>5474</v>
       </c>
       <c r="J62" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L62" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -4403,8 +4524,8 @@
       <c r="Q62" t="n">
         <v>1</v>
       </c>
-      <c r="R62" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R62" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="63">
@@ -4443,8 +4564,10 @@
       <c r="K63" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L63" s="3" t="n">
-        <v>0.7708333333333334</v>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -4467,8 +4590,8 @@
       <c r="Q63" t="n">
         <v>1</v>
       </c>
-      <c r="R63" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R63" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="64">
@@ -4499,7 +4622,7 @@
         <v>244037</v>
       </c>
       <c r="I64" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J64" t="n">
         <v>794590</v>
@@ -4507,8 +4630,10 @@
       <c r="K64" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="L64" s="3" t="n">
-        <v>0.9270833333333334</v>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -4531,8 +4656,8 @@
       <c r="Q64" t="n">
         <v>1</v>
       </c>
-      <c r="R64" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R64" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="65">
@@ -4571,8 +4696,10 @@
       <c r="K65" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L65" s="3" t="n">
-        <v>0.6458333333333334</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -4595,8 +4722,8 @@
       <c r="Q65" t="n">
         <v>1</v>
       </c>
-      <c r="R65" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R65" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="66">
@@ -4635,8 +4762,10 @@
       <c r="K66" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L66" s="3" t="n">
-        <v>0.6666666666666666</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -4659,8 +4788,8 @@
       <c r="Q66" t="n">
         <v>2</v>
       </c>
-      <c r="R66" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R66" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="67">
@@ -4699,8 +4828,10 @@
       <c r="K67" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L67" s="3" t="n">
-        <v>0.6041666666666666</v>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -4723,8 +4854,8 @@
       <c r="Q67" t="n">
         <v>6</v>
       </c>
-      <c r="R67" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R67" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="68">
@@ -4758,13 +4889,15 @@
         <v>786600</v>
       </c>
       <c r="J68" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L68" s="3" t="n">
-        <v>0.75</v>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -4787,8 +4920,8 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R68" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="69">
@@ -4827,8 +4960,10 @@
       <c r="K69" s="2" t="n">
         <v>45445</v>
       </c>
-      <c r="L69" s="3" t="n">
-        <v>0.6979166666666666</v>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -4851,8 +4986,8 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R69" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="70">
@@ -4883,16 +5018,18 @@
         <v>787819</v>
       </c>
       <c r="I70" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="J70" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L70" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -4915,8 +5052,8 @@
       <c r="Q70" t="n">
         <v>2</v>
       </c>
-      <c r="R70" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R70" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="71">
@@ -4955,8 +5092,10 @@
       <c r="K71" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L71" s="3" t="n">
-        <v>0.78125</v>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -4979,8 +5118,8 @@
       <c r="Q71" t="n">
         <v>1</v>
       </c>
-      <c r="R71" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R71" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="72">
@@ -5019,8 +5158,10 @@
       <c r="K72" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L72" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -5043,8 +5184,8 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R72" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="73">
@@ -5083,8 +5224,10 @@
       <c r="K73" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="L73" s="3" t="n">
-        <v>0.8541666666666666</v>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -5107,8 +5250,8 @@
       <c r="Q73" t="n">
         <v>2</v>
       </c>
-      <c r="R73" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R73" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="74">
@@ -5147,8 +5290,10 @@
       <c r="K74" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L74" s="3" t="n">
-        <v>0.8020833333333334</v>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -5171,8 +5316,8 @@
       <c r="Q74" t="n">
         <v>1</v>
       </c>
-      <c r="R74" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R74" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="75">
@@ -5203,7 +5348,7 @@
         <v>788983</v>
       </c>
       <c r="I75" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J75" t="n">
         <v>791416</v>
@@ -5211,8 +5356,10 @@
       <c r="K75" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L75" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -5235,8 +5382,8 @@
       <c r="Q75" t="n">
         <v>1</v>
       </c>
-      <c r="R75" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R75" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="76">
@@ -5275,8 +5422,10 @@
       <c r="K76" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L76" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -5299,8 +5448,8 @@
       <c r="Q76" t="n">
         <v>1</v>
       </c>
-      <c r="R76" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R76" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="77">
@@ -5331,7 +5480,7 @@
         <v>554152</v>
       </c>
       <c r="I77" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="J77" t="n">
         <v>785466</v>
@@ -5339,8 +5488,10 @@
       <c r="K77" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L77" s="3" t="n">
-        <v>0.75</v>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -5363,8 +5514,8 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R77" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="78">
@@ -5403,8 +5554,10 @@
       <c r="K78" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L78" s="3" t="n">
-        <v>0.9479166666666666</v>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -5427,8 +5580,8 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R78" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="79">
@@ -5467,8 +5620,10 @@
       <c r="K79" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="L79" s="3" t="n">
-        <v>0.9583333333333334</v>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -5491,8 +5646,8 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R79" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="80">
@@ -5531,8 +5686,10 @@
       <c r="K80" s="2" t="n">
         <v>45458</v>
       </c>
-      <c r="L80" s="3" t="n">
-        <v>0.8125</v>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -5555,8 +5712,8 @@
       <c r="Q80" t="n">
         <v>1</v>
       </c>
-      <c r="R80" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R80" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="81">
@@ -5590,13 +5747,15 @@
         <v>108391</v>
       </c>
       <c r="J81" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K81" s="2" t="n">
         <v>45458</v>
       </c>
-      <c r="L81" s="3" t="n">
-        <v>0.7916666666666666</v>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -5619,8 +5778,8 @@
       <c r="Q81" t="n">
         <v>2</v>
       </c>
-      <c r="R81" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R81" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="82">
@@ -5651,7 +5810,7 @@
         <v>244037</v>
       </c>
       <c r="I82" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J82" t="n">
         <v>784663</v>
@@ -5659,8 +5818,10 @@
       <c r="K82" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L82" s="3" t="n">
-        <v>0.5833333333333334</v>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -5683,8 +5844,8 @@
       <c r="Q82" t="n">
         <v>1</v>
       </c>
-      <c r="R82" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R82" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="83">
@@ -5715,7 +5876,7 @@
         <v>787576</v>
       </c>
       <c r="I83" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J83" t="n">
         <v>785466</v>
@@ -5723,8 +5884,10 @@
       <c r="K83" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L83" s="3" t="n">
-        <v>0.71875</v>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -5747,8 +5910,8 @@
       <c r="Q83" t="n">
         <v>2</v>
       </c>
-      <c r="R83" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R83" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="84">
@@ -5782,13 +5945,15 @@
         <v>793051</v>
       </c>
       <c r="J84" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K84" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L84" s="3" t="n">
-        <v>0.625</v>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -5811,8 +5976,8 @@
       <c r="Q84" t="n">
         <v>1</v>
       </c>
-      <c r="R84" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R84" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="85">
@@ -5851,8 +6016,10 @@
       <c r="K85" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L85" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -5875,8 +6042,8 @@
       <c r="Q85" t="n">
         <v>2</v>
       </c>
-      <c r="R85" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R85" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="86">
@@ -5915,8 +6082,10 @@
       <c r="K86" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L86" s="3" t="n">
-        <v>0.78125</v>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -5939,8 +6108,8 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R86" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="87">
@@ -5979,8 +6148,10 @@
       <c r="K87" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L87" s="3" t="n">
-        <v>0.6770833333333334</v>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -6003,8 +6174,8 @@
       <c r="Q87" t="n">
         <v>2</v>
       </c>
-      <c r="R87" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R87" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="88">
@@ -6043,8 +6214,10 @@
       <c r="K88" s="2" t="n">
         <v>45459</v>
       </c>
-      <c r="L88" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -6067,8 +6240,8 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R88" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="89">
@@ -6107,8 +6280,10 @@
       <c r="K89" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="L89" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -6131,8 +6306,8 @@
       <c r="Q89" t="n">
         <v>4</v>
       </c>
-      <c r="R89" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R89" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="90">
@@ -6163,7 +6338,7 @@
         <v>789405</v>
       </c>
       <c r="I90" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="J90" t="n">
         <v>791416</v>
@@ -6171,8 +6346,10 @@
       <c r="K90" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L90" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -6195,8 +6372,8 @@
       <c r="Q90" t="n">
         <v>2</v>
       </c>
-      <c r="R90" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R90" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="91">
@@ -6230,13 +6407,15 @@
         <v>794590</v>
       </c>
       <c r="J91" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K91" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L91" s="3" t="n">
-        <v>0.8020833333333334</v>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -6259,8 +6438,8 @@
       <c r="Q91" t="n">
         <v>1</v>
       </c>
-      <c r="R91" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R91" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="92">
@@ -6299,8 +6478,10 @@
       <c r="K92" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L92" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -6323,8 +6504,8 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R92" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="93">
@@ -6363,8 +6544,10 @@
       <c r="K93" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L93" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -6387,8 +6570,8 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R93" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="94">
@@ -6427,8 +6610,10 @@
       <c r="K94" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L94" s="3" t="n">
-        <v>0.9270833333333334</v>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -6451,8 +6636,8 @@
       <c r="Q94" t="n">
         <v>1</v>
       </c>
-      <c r="R94" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R94" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="95">
@@ -6491,8 +6676,10 @@
       <c r="K95" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L95" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -6515,8 +6702,8 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R95" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="96">
@@ -6547,16 +6734,18 @@
         <v>243151</v>
       </c>
       <c r="I96" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="J96" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K96" s="2" t="n">
         <v>45462</v>
       </c>
-      <c r="L96" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -6579,8 +6768,8 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R96" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="97">
@@ -6619,8 +6808,10 @@
       <c r="K97" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="L97" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -6643,8 +6834,8 @@
       <c r="Q97" t="n">
         <v>2</v>
       </c>
-      <c r="R97" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R97" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="98">
@@ -6683,8 +6874,10 @@
       <c r="K98" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="L98" s="3" t="n">
-        <v>0.8125</v>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -6707,8 +6900,8 @@
       <c r="Q98" t="n">
         <v>1</v>
       </c>
-      <c r="R98" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R98" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="99">
@@ -6747,8 +6940,10 @@
       <c r="K99" s="2" t="n">
         <v>45463</v>
       </c>
-      <c r="L99" s="3" t="n">
-        <v>0.8020833333333334</v>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -6771,8 +6966,8 @@
       <c r="Q99" t="n">
         <v>1</v>
       </c>
-      <c r="R99" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R99" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="100">
@@ -6811,8 +7006,10 @@
       <c r="K100" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L100" s="3" t="n">
-        <v>0.59375</v>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -6835,8 +7032,8 @@
       <c r="Q100" t="n">
         <v>1</v>
       </c>
-      <c r="R100" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R100" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="101">
@@ -6870,13 +7067,15 @@
         <v>787598</v>
       </c>
       <c r="J101" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K101" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L101" s="3" t="n">
-        <v>0.7916666666666666</v>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -6899,8 +7098,8 @@
       <c r="Q101" t="n">
         <v>1</v>
       </c>
-      <c r="R101" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R101" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="102">
@@ -6934,13 +7133,15 @@
         <v>5474</v>
       </c>
       <c r="J102" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K102" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L102" s="3" t="n">
-        <v>0.7916666666666666</v>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -6963,8 +7164,8 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R102" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="103">
@@ -7003,8 +7204,10 @@
       <c r="K103" s="2" t="n">
         <v>45465</v>
       </c>
-      <c r="L103" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -7027,8 +7230,8 @@
       <c r="Q103" t="n">
         <v>1</v>
       </c>
-      <c r="R103" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R103" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="104">
@@ -7059,16 +7262,18 @@
         <v>787245</v>
       </c>
       <c r="I104" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J104" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K104" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L104" s="3" t="n">
-        <v>0.6979166666666666</v>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -7091,8 +7296,8 @@
       <c r="Q104" t="n">
         <v>1</v>
       </c>
-      <c r="R104" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R104" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="105">
@@ -7131,8 +7336,10 @@
       <c r="K105" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L105" s="3" t="n">
-        <v>0.6041666666666666</v>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -7155,8 +7362,8 @@
       <c r="Q105" t="n">
         <v>1</v>
       </c>
-      <c r="R105" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R105" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="106">
@@ -7195,8 +7402,10 @@
       <c r="K106" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L106" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -7219,8 +7428,8 @@
       <c r="Q106" t="n">
         <v>1</v>
       </c>
-      <c r="R106" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R106" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="107">
@@ -7259,8 +7468,10 @@
       <c r="K107" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L107" s="3" t="n">
-        <v>0.75</v>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -7283,8 +7494,8 @@
       <c r="Q107" t="n">
         <v>1</v>
       </c>
-      <c r="R107" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R107" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="108">
@@ -7323,8 +7534,10 @@
       <c r="K108" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L108" s="3" t="n">
-        <v>0.7916666666666666</v>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -7347,8 +7560,8 @@
       <c r="Q108" t="n">
         <v>1</v>
       </c>
-      <c r="R108" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R108" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="109">
@@ -7387,8 +7600,10 @@
       <c r="K109" s="2" t="n">
         <v>45466</v>
       </c>
-      <c r="L109" s="3" t="n">
-        <v>0.6875</v>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -7411,8 +7626,8 @@
       <c r="Q109" t="n">
         <v>1</v>
       </c>
-      <c r="R109" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R109" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="110">
@@ -7451,8 +7666,10 @@
       <c r="K110" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L110" s="3" t="n">
-        <v>0.8854166666666666</v>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -7475,8 +7692,8 @@
       <c r="Q110" t="n">
         <v>1</v>
       </c>
-      <c r="R110" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R110" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="111">
@@ -7510,13 +7727,15 @@
         <v>801563</v>
       </c>
       <c r="J111" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K111" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L111" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -7539,8 +7758,8 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R111" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="112">
@@ -7579,8 +7798,10 @@
       <c r="K112" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L112" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -7603,8 +7824,8 @@
       <c r="Q112" t="n">
         <v>1</v>
       </c>
-      <c r="R112" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R112" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="113">
@@ -7635,7 +7856,7 @@
         <v>788878</v>
       </c>
       <c r="I113" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J113" t="n">
         <v>5474</v>
@@ -7643,8 +7864,10 @@
       <c r="K113" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L113" s="3" t="n">
-        <v>0.8958333333333334</v>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -7667,8 +7890,8 @@
       <c r="Q113" t="n">
         <v>1</v>
       </c>
-      <c r="R113" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R113" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="114">
@@ -7707,8 +7930,10 @@
       <c r="K114" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L114" s="3" t="n">
-        <v>0.75</v>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -7731,8 +7956,8 @@
       <c r="Q114" t="n">
         <v>1</v>
       </c>
-      <c r="R114" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R114" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="115">
@@ -7771,8 +7996,10 @@
       <c r="K115" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L115" s="3" t="n">
-        <v>0.9375</v>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -7795,8 +8022,8 @@
       <c r="Q115" t="n">
         <v>1</v>
       </c>
-      <c r="R115" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R115" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="116">
@@ -7835,8 +8062,10 @@
       <c r="K116" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L116" s="3" t="n">
-        <v>0.9166666666666666</v>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -7859,8 +8088,8 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R116" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="117">
@@ -7891,7 +8120,7 @@
         <v>243133</v>
       </c>
       <c r="I117" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="J117" t="n">
         <v>784886</v>
@@ -7899,8 +8128,10 @@
       <c r="K117" s="2" t="n">
         <v>45469</v>
       </c>
-      <c r="L117" s="3" t="n">
-        <v>0.90625</v>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -7923,8 +8154,8 @@
       <c r="Q117" t="n">
         <v>2</v>
       </c>
-      <c r="R117" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R117" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="118">
@@ -7963,8 +8194,10 @@
       <c r="K118" s="2" t="n">
         <v>45470</v>
       </c>
-      <c r="L118" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -7987,8 +8220,8 @@
       <c r="Q118" t="n">
         <v>1</v>
       </c>
-      <c r="R118" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R118" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="119">
@@ -8027,8 +8260,10 @@
       <c r="K119" s="2" t="n">
         <v>45470</v>
       </c>
-      <c r="L119" s="3" t="n">
-        <v>0.9375</v>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -8051,8 +8286,8 @@
       <c r="Q119" t="n">
         <v>1</v>
       </c>
-      <c r="R119" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R119" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="120">
@@ -8091,8 +8326,10 @@
       <c r="K120" s="2" t="n">
         <v>45472</v>
       </c>
-      <c r="L120" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -8115,8 +8352,8 @@
       <c r="Q120" t="n">
         <v>1</v>
       </c>
-      <c r="R120" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R120" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="121">
@@ -8155,8 +8392,10 @@
       <c r="K121" s="2" t="n">
         <v>45472</v>
       </c>
-      <c r="L121" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -8179,8 +8418,8 @@
       <c r="Q121" t="n">
         <v>1</v>
       </c>
-      <c r="R121" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R121" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="122">
@@ -8214,13 +8453,15 @@
         <v>784886</v>
       </c>
       <c r="J122" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K122" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L122" s="3" t="n">
-        <v>0.53125</v>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -8243,8 +8484,8 @@
       <c r="Q122" t="n">
         <v>1</v>
       </c>
-      <c r="R122" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R122" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="123">
@@ -8283,8 +8524,10 @@
       <c r="K123" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L123" s="3" t="n">
-        <v>0.6145833333333334</v>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -8307,8 +8550,8 @@
       <c r="Q123" t="n">
         <v>1</v>
       </c>
-      <c r="R123" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R123" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="124">
@@ -8347,8 +8590,10 @@
       <c r="K124" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L124" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -8371,8 +8616,8 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R124" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="125">
@@ -8411,8 +8656,10 @@
       <c r="K125" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L125" s="3" t="n">
-        <v>0.5625</v>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -8435,8 +8682,8 @@
       <c r="Q125" t="n">
         <v>1</v>
       </c>
-      <c r="R125" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R125" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="126">
@@ -8470,13 +8717,15 @@
         <v>791416</v>
       </c>
       <c r="J126" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K126" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L126" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -8499,8 +8748,8 @@
       <c r="Q126" t="n">
         <v>1</v>
       </c>
-      <c r="R126" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R126" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="127">
@@ -8539,8 +8788,10 @@
       <c r="K127" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L127" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -8563,8 +8814,8 @@
       <c r="Q127" t="n">
         <v>1</v>
       </c>
-      <c r="R127" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R127" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="128">
@@ -8598,13 +8849,15 @@
         <v>793051</v>
       </c>
       <c r="J128" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K128" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="L128" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -8627,8 +8880,8 @@
       <c r="Q128" t="n">
         <v>1</v>
       </c>
-      <c r="R128" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R128" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="129">
@@ -8662,13 +8915,15 @@
         <v>784709</v>
       </c>
       <c r="J129" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K129" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="L129" s="3" t="n">
-        <v>0.90625</v>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
@@ -8691,8 +8946,8 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R129" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="130">
@@ -8731,8 +8986,10 @@
       <c r="K130" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L130" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -8755,8 +9012,8 @@
       <c r="Q130" t="n">
         <v>2</v>
       </c>
-      <c r="R130" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R130" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="131">
@@ -8795,8 +9052,10 @@
       <c r="K131" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L131" s="3" t="n">
-        <v>0.8541666666666666</v>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -8819,8 +9078,8 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R131" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="132">
@@ -8859,8 +9118,10 @@
       <c r="K132" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L132" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -8883,8 +9144,8 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R132" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="133">
@@ -8915,7 +9176,7 @@
         <v>789405</v>
       </c>
       <c r="I133" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J133" t="n">
         <v>785466</v>
@@ -8923,8 +9184,10 @@
       <c r="K133" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L133" s="3" t="n">
-        <v>0.8020833333333334</v>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -8947,8 +9210,8 @@
       <c r="Q133" t="n">
         <v>2</v>
       </c>
-      <c r="R133" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R133" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="134">
@@ -8987,8 +9250,10 @@
       <c r="K134" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L134" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -9011,8 +9276,8 @@
       <c r="Q134" t="n">
         <v>4</v>
       </c>
-      <c r="R134" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R134" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="135">
@@ -9046,13 +9311,15 @@
         <v>125341</v>
       </c>
       <c r="J135" t="n">
-        <v>797117</v>
+        <v>164969</v>
       </c>
       <c r="K135" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="L135" s="3" t="n">
-        <v>0.9479166666666666</v>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -9075,8 +9342,8 @@
       <c r="Q135" t="n">
         <v>1</v>
       </c>
-      <c r="R135" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R135" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="136">
@@ -9109,14 +9376,14 @@
       <c r="I136" t="n">
         <v>787735</v>
       </c>
-      <c r="J136" t="n">
-        <v>784982</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L136" s="3" t="n">
-        <v>0.6979166666666666</v>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -9139,8 +9406,8 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R136" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="137">
@@ -9179,8 +9446,10 @@
       <c r="K137" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L137" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -9203,8 +9472,8 @@
       <c r="Q137" t="n">
         <v>2</v>
       </c>
-      <c r="R137" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R137" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="138">
@@ -9235,7 +9504,7 @@
         <v>789001</v>
       </c>
       <c r="I138" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="J138" t="n">
         <v>793051</v>
@@ -9243,8 +9512,10 @@
       <c r="K138" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L138" s="3" t="n">
-        <v>0.75</v>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -9267,8 +9538,8 @@
       <c r="Q138" t="n">
         <v>2</v>
       </c>
-      <c r="R138" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R138" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="139">
@@ -9302,13 +9573,15 @@
         <v>108391</v>
       </c>
       <c r="J139" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="K139" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="L139" s="3" t="n">
-        <v>0.7604166666666666</v>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -9331,8 +9604,8 @@
       <c r="Q139" t="n">
         <v>1</v>
       </c>
-      <c r="R139" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R139" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="140">
@@ -9371,8 +9644,10 @@
       <c r="K140" s="2" t="n">
         <v>45479</v>
       </c>
-      <c r="L140" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -9395,8 +9670,8 @@
       <c r="Q140" t="n">
         <v>1</v>
       </c>
-      <c r="R140" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R140" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="141">
@@ -9435,8 +9710,10 @@
       <c r="K141" s="2" t="n">
         <v>45479</v>
       </c>
-      <c r="L141" s="3" t="n">
-        <v>0.90625</v>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -9459,8 +9736,8 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R141" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="142">
@@ -9494,13 +9771,15 @@
         <v>801563</v>
       </c>
       <c r="J142" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K142" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L142" s="3" t="n">
-        <v>0.6875</v>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
@@ -9523,8 +9802,8 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R142" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="143">
@@ -9563,8 +9842,10 @@
       <c r="K143" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L143" s="3" t="n">
-        <v>0.6145833333333334</v>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -9587,8 +9868,8 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R143" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="144">
@@ -9627,8 +9908,10 @@
       <c r="K144" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L144" s="3" t="n">
-        <v>0.6458333333333334</v>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -9651,8 +9934,8 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R144" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="145">
@@ -9683,7 +9966,7 @@
         <v>789001</v>
       </c>
       <c r="I145" t="n">
-        <v>784639</v>
+        <v>803399</v>
       </c>
       <c r="J145" t="n">
         <v>804981</v>
@@ -9691,8 +9974,10 @@
       <c r="K145" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L145" s="3" t="n">
-        <v>0.78125</v>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -9715,8 +10000,8 @@
       <c r="Q145" t="n">
         <v>2</v>
       </c>
-      <c r="R145" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R145" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="146">
@@ -9750,13 +10035,15 @@
         <v>164969</v>
       </c>
       <c r="J146" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="K146" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L146" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
@@ -9779,8 +10066,8 @@
       <c r="Q146" t="n">
         <v>2</v>
       </c>
-      <c r="R146" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R146" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="147">
@@ -9819,8 +10106,10 @@
       <c r="K147" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L147" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -9843,8 +10132,8 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R147" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="148">
@@ -9883,8 +10172,10 @@
       <c r="K148" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L148" s="3" t="n">
-        <v>0.7083333333333334</v>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -9907,8 +10198,8 @@
       <c r="Q148" t="n">
         <v>1</v>
       </c>
-      <c r="R148" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R148" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="149">
@@ -9947,8 +10238,10 @@
       <c r="K149" s="2" t="n">
         <v>45480</v>
       </c>
-      <c r="L149" s="3" t="n">
-        <v>0.8645833333333334</v>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -9971,8 +10264,8 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R149" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="150">
@@ -10005,8 +10298,10 @@
       <c r="K150" s="2" t="n">
         <v>45482</v>
       </c>
-      <c r="L150" s="3" t="n">
-        <v>0.96875</v>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -10025,8 +10320,8 @@
       </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R150" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="151">
@@ -10065,8 +10360,10 @@
       <c r="K151" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L151" s="3" t="n">
-        <v>0.8125</v>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
@@ -10089,8 +10386,8 @@
       <c r="Q151" t="n">
         <v>2</v>
       </c>
-      <c r="R151" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R151" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="152">
@@ -10121,7 +10418,7 @@
         <v>787245</v>
       </c>
       <c r="I152" t="n">
-        <v>798839</v>
+        <v>795784</v>
       </c>
       <c r="J152" t="n">
         <v>787735</v>
@@ -10129,8 +10426,10 @@
       <c r="K152" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L152" s="3" t="n">
-        <v>0.84375</v>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -10153,8 +10452,8 @@
       <c r="Q152" t="n">
         <v>3</v>
       </c>
-      <c r="R152" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R152" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="153">
@@ -10187,8 +10486,10 @@
       <c r="K153" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L153" s="3" t="n">
-        <v>0.6875</v>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -10207,8 +10508,8 @@
       </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R153" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="154">
@@ -10242,13 +10543,15 @@
         <v>804981</v>
       </c>
       <c r="J154" t="n">
-        <v>802281</v>
+        <v>784889</v>
       </c>
       <c r="K154" s="2" t="n">
         <v>45483</v>
       </c>
-      <c r="L154" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -10271,8 +10574,8 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R154" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="155">
@@ -10311,8 +10614,10 @@
       <c r="K155" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L155" s="3" t="n">
-        <v>0.75</v>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -10335,8 +10640,8 @@
       <c r="Q155" t="n">
         <v>1</v>
       </c>
-      <c r="R155" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R155" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="156">
@@ -10375,8 +10680,10 @@
       <c r="K156" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L156" s="3" t="n">
-        <v>0.7291666666666666</v>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -10399,8 +10706,8 @@
       <c r="Q156" t="n">
         <v>1</v>
       </c>
-      <c r="R156" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R156" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="157">
@@ -10439,8 +10746,10 @@
       <c r="K157" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L157" s="3" t="n">
-        <v>0.9270833333333334</v>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
@@ -10463,8 +10772,8 @@
       <c r="Q157" t="n">
         <v>2</v>
       </c>
-      <c r="R157" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R157" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="158">
@@ -10503,8 +10812,10 @@
       <c r="K158" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L158" s="3" t="n">
-        <v>0.8229166666666666</v>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -10527,8 +10838,8 @@
       <c r="Q158" t="n">
         <v>1</v>
       </c>
-      <c r="R158" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R158" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="159">
@@ -10567,8 +10878,10 @@
       <c r="K159" s="2" t="n">
         <v>45484</v>
       </c>
-      <c r="L159" s="3" t="n">
-        <v>0.8333333333333334</v>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
@@ -10591,8 +10904,8 @@
       <c r="Q159" t="n">
         <v>1</v>
       </c>
-      <c r="R159" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R159" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="160">
@@ -10631,8 +10944,10 @@
       <c r="K160" s="2" t="n">
         <v>45486</v>
       </c>
-      <c r="L160" s="3" t="n">
-        <v>0.71875</v>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
@@ -10655,8 +10970,8 @@
       <c r="Q160" t="n">
         <v>2</v>
       </c>
-      <c r="R160" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R160" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="161">
@@ -10695,8 +11010,10 @@
       <c r="K161" s="2" t="n">
         <v>45486</v>
       </c>
-      <c r="L161" s="3" t="n">
-        <v>0.75</v>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -10719,8 +11036,8 @@
       <c r="Q161" t="n">
         <v>1</v>
       </c>
-      <c r="R161" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R161" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="162">
@@ -10759,8 +11076,10 @@
       <c r="K162" s="2" t="n">
         <v>45489</v>
       </c>
-      <c r="L162" s="3" t="n">
-        <v>0.875</v>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
@@ -10783,19 +11102,19 @@
       <c r="Q162" t="n">
         <v>1</v>
       </c>
-      <c r="R162" s="4" t="n">
-        <v>45489.90765046296</v>
+      <c r="R162" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12117137</v>
+        <v>12117139</v>
       </c>
       <c r="B163" t="n">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="C163" t="n">
-        <v>1967</v>
+        <v>1984</v>
       </c>
       <c r="D163" t="n">
         <v>325</v>
@@ -10808,48 +11127,60 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>postponed</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>788983</v>
+      </c>
+      <c r="I163" t="n">
+        <v>784889</v>
+      </c>
+      <c r="J163" t="n">
+        <v>791416</v>
+      </c>
       <c r="K163" s="2" t="n">
-        <v>45490</v>
-      </c>
-      <c r="L163" s="3" t="n">
-        <v>0.6041666666666666</v>
+        <v>45489</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Estádio do Maracanã</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" s="4" t="n">
-        <v>45491.00299768519</v>
+          <t>Neo Química Arena</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12117134</v>
+        <v>12117137</v>
       </c>
       <c r="B164" t="n">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="C164" t="n">
-        <v>5981</v>
+        <v>1967</v>
       </c>
       <c r="D164" t="n">
         <v>325</v>
@@ -10871,8 +11202,10 @@
       <c r="K164" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L164" s="3" t="n">
-        <v>0.625</v>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -10881,29 +11214,29 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Estádio Beira-Rio</t>
+          <t>Estádio do Maracanã</t>
         </is>
       </c>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
-      <c r="R164" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R164" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12117142</v>
+        <v>12117134</v>
       </c>
       <c r="B165" t="n">
-        <v>7314</v>
+        <v>1966</v>
       </c>
       <c r="C165" t="n">
-        <v>1974</v>
+        <v>5981</v>
       </c>
       <c r="D165" t="n">
         <v>325</v>
@@ -10916,23 +11249,19 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>finished</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>788854</v>
-      </c>
-      <c r="I165" t="n">
-        <v>164969</v>
-      </c>
-      <c r="J165" t="n">
-        <v>804981</v>
-      </c>
+          <t>postponed</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L165" s="3" t="n">
-        <v>0.7395833333333334</v>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -10941,33 +11270,29 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>Goiânia</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Estádio Antônio Accioly</t>
-        </is>
-      </c>
-      <c r="P165" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>1</v>
-      </c>
-      <c r="R165" s="4" t="n">
-        <v>45491.00299768519</v>
+          <t>Estádio Beira-Rio</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>12117140</v>
+        <v>12117142</v>
       </c>
       <c r="B166" t="n">
-        <v>1981</v>
+        <v>7314</v>
       </c>
       <c r="C166" t="n">
-        <v>5926</v>
+        <v>1974</v>
       </c>
       <c r="D166" t="n">
         <v>325</v>
@@ -10984,19 +11309,21 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>789001</v>
+        <v>788854</v>
       </c>
       <c r="I166" t="n">
-        <v>785466</v>
+        <v>164969</v>
       </c>
       <c r="J166" t="n">
-        <v>787598</v>
+        <v>804981</v>
       </c>
       <c r="K166" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L166" s="3" t="n">
-        <v>0.9270833333333334</v>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -11005,33 +11332,33 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Goiânia</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Estádio Cícero Pompeu de Toledo</t>
+          <t>Estádio Antônio Accioly</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" s="4" t="n">
-        <v>45491.00299768519</v>
+        <v>1</v>
+      </c>
+      <c r="R166" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>12117138</v>
+        <v>12117140</v>
       </c>
       <c r="B167" t="n">
-        <v>1958</v>
+        <v>1981</v>
       </c>
       <c r="C167" t="n">
-        <v>1963</v>
+        <v>5926</v>
       </c>
       <c r="D167" t="n">
         <v>325</v>
@@ -11048,19 +11375,21 @@
         </is>
       </c>
       <c r="H167" t="n">
-        <v>244037</v>
+        <v>789001</v>
       </c>
       <c r="I167" t="n">
-        <v>794590</v>
+        <v>785466</v>
       </c>
       <c r="J167" t="n">
-        <v>784709</v>
+        <v>787598</v>
       </c>
       <c r="K167" s="2" t="n">
-        <v>45491</v>
-      </c>
-      <c r="L167" s="3" t="n">
-        <v>0.8333333333333334</v>
+        <v>45490</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -11069,12 +11398,12 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Estádio Nilton Santos</t>
+          <t>Estádio Cícero Pompeu de Toledo</t>
         </is>
       </c>
       <c r="P167" t="n">
@@ -11083,19 +11412,19 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" s="4" t="n">
-        <v>45491.00299768519</v>
+      <c r="R167" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>12117141</v>
+        <v>12117138</v>
       </c>
       <c r="B168" t="n">
-        <v>2020</v>
+        <v>1958</v>
       </c>
       <c r="C168" t="n">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D168" t="n">
         <v>325</v>
@@ -11112,19 +11441,21 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>788516</v>
+        <v>244037</v>
       </c>
       <c r="I168" t="n">
-        <v>786600</v>
+        <v>794590</v>
       </c>
       <c r="J168" t="n">
-        <v>793051</v>
+        <v>784709</v>
       </c>
       <c r="K168" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="L168" s="3" t="n">
-        <v>0.8854166666666666</v>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -11133,33 +11464,33 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Estádio Castelão</t>
+          <t>Estádio Nilton Santos</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q168" t="n">
-        <v>1</v>
-      </c>
-      <c r="R168" s="4" t="n">
-        <v>45491.00299768519</v>
+        <v>0</v>
+      </c>
+      <c r="R168" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>12117139</v>
+        <v>12117141</v>
       </c>
       <c r="B169" t="n">
-        <v>1957</v>
+        <v>2020</v>
       </c>
       <c r="C169" t="n">
-        <v>1984</v>
+        <v>1962</v>
       </c>
       <c r="D169" t="n">
         <v>325</v>
@@ -11176,43 +11507,605 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>788983</v>
+        <v>788516</v>
       </c>
       <c r="I169" t="n">
-        <v>784889</v>
+        <v>786600</v>
       </c>
       <c r="J169" t="n">
-        <v>791416</v>
+        <v>793051</v>
       </c>
       <c r="K169" s="2" t="n">
-        <v>45489</v>
-      </c>
-      <c r="L169" s="3" t="n">
-        <v>0.9791666666666666</v>
+        <v>45490</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Estádio Castelão</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>12117147</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5981</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D170" t="n">
+        <v>325</v>
+      </c>
+      <c r="E170" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Estádio do Maracanã</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>12117148</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D171" t="n">
+        <v>325</v>
+      </c>
+      <c r="E171" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Estádio Nilton Santos</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>12117149</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D172" t="n">
+        <v>325</v>
+      </c>
+      <c r="E172" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>Neo Química Arena</t>
-        </is>
-      </c>
-      <c r="P169" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>1</v>
-      </c>
-      <c r="R169" s="4" t="n">
-        <v>45490.00259259259</v>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Allianz Parque</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>12117144</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5926</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1962</v>
+      </c>
+      <c r="D173" t="n">
+        <v>325</v>
+      </c>
+      <c r="E173" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Porto Alegre</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>12117145</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D174" t="n">
+        <v>325</v>
+      </c>
+      <c r="E174" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Arena MRV</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>12117146</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D175" t="n">
+        <v>325</v>
+      </c>
+      <c r="E175" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Arena Fonte Nova</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>12117151</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7314</v>
+      </c>
+      <c r="D176" t="n">
+        <v>325</v>
+      </c>
+      <c r="E176" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Estádio Castelão</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>12117153</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D177" t="n">
+        <v>325</v>
+      </c>
+      <c r="E177" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>Caxias do Sul</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Estádio Alfredo Jaconi</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>12117150</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1967</v>
+      </c>
+      <c r="D178" t="n">
+        <v>325</v>
+      </c>
+      <c r="E178" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>Bragança Paulista</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" s="3" t="n">
+        <v>45492.67011574074</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>12117152</v>
+      </c>
+      <c r="B179" t="n">
+        <v>49202</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1961</v>
+      </c>
+      <c r="D179" t="n">
+        <v>325</v>
+      </c>
+      <c r="E179" t="n">
+        <v>58766</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>notstarted</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Arena Pantanal</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" s="3" t="n">
+        <v>45492.67011574074</v>
       </c>
     </row>
   </sheetData>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -9376,7 +9376,9 @@
       <c r="I136" t="n">
         <v>787735</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>784982</v>
+      </c>
       <c r="K136" s="2" t="n">
         <v>45477</v>
       </c>

--- a/data/matches.xlsx
+++ b/data/matches.xlsx
@@ -1311,7 +1311,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="14">
@@ -1961,7 +1961,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="24">
@@ -2611,7 +2611,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="34">
@@ -10323,7 +10323,7 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="151">
@@ -10511,7 +10511,7 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="154">
@@ -11227,7 +11227,7 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="165">
@@ -11283,7 +11283,7 @@
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="166">
@@ -11603,7 +11603,7 @@
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="171">
@@ -11659,7 +11659,7 @@
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="172">
@@ -11715,7 +11715,7 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="173">
@@ -11771,7 +11771,7 @@
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="174">
@@ -11827,7 +11827,7 @@
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="175">
@@ -11883,7 +11883,7 @@
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="176">
@@ -11939,7 +11939,7 @@
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="177">
@@ -11995,7 +11995,7 @@
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="178">
@@ -12051,7 +12051,7 @@
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
     <row r="179">
@@ -12107,7 +12107,7 @@
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" s="3" t="n">
-        <v>45492.67011574074</v>
+        <v>45492.81358796296</v>
       </c>
     </row>
   </sheetData>
